--- a/ff4_instruments_shared.xlsx
+++ b/ff4_instruments_shared.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dati\Profili\WREI021\Dropbox\Projects\IV Extension\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Projects\IV Extension\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6000" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7125"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,28 +21,23 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>time</t>
+    <t>Time</t>
   </si>
   <si>
-    <t>mar_mp_extended_1</t>
+    <t>MPS</t>
   </si>
   <si>
-    <t>mar_info_extended_1</t>
+    <t>INFO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,7 +48,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -62,15 +64,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Normal 6" xfId="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -349,11 +350,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C325"/>
+  <dimension ref="A1:C337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="3" width="16.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -367,63 +372,63 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
-        <v>199101</v>
+      <c r="A2" s="1">
+        <v>33239</v>
       </c>
       <c r="B2">
-        <v>2.6031960260961846E-3</v>
+        <v>1.8240165711037887E-3</v>
       </c>
       <c r="C2">
-        <v>7.8898151762407664E-3</v>
+        <v>5.8537858074912685E-4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
-        <v>199102</v>
+      <c r="A3" s="1">
+        <v>33270</v>
       </c>
       <c r="B3">
-        <v>-4.4594559818100371E-2</v>
+        <v>-4.3895268746398958E-2</v>
       </c>
       <c r="C3">
-        <v>-1.8425690562111074E-3</v>
+        <v>-6.6089847048149825E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
-        <v>199103</v>
+      <c r="A4" s="1">
+        <v>33298</v>
       </c>
       <c r="B4">
-        <v>6.7011836679210429E-2</v>
+        <v>6.7666781436493961E-2</v>
       </c>
       <c r="C4">
-        <v>-2.4468141626095008E-2</v>
+        <v>-2.8834817631123527E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5">
-        <v>199104</v>
+      <c r="A5" s="1">
+        <v>33329</v>
       </c>
       <c r="B5">
-        <v>-0.11926933044123458</v>
+        <v>-0.11810844023145629</v>
       </c>
       <c r="C5">
-        <v>3.3037715343339852E-2</v>
+        <v>3.0437607275605065E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6">
-        <v>199105</v>
+      <c r="A6" s="1">
+        <v>33359</v>
       </c>
       <c r="B6">
-        <v>2.681288903402429E-2</v>
+        <v>2.7039270036287671E-2</v>
       </c>
       <c r="C6">
-        <v>4.7473151497494842E-2</v>
+        <v>4.4595043334367958E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7">
-        <v>199106</v>
+      <c r="A7" s="1">
+        <v>33390</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -433,74 +438,74 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8">
-        <v>199107</v>
+      <c r="A8" s="1">
+        <v>33420</v>
       </c>
       <c r="B8">
-        <v>4.2977283939883607E-2</v>
+        <v>4.1771331653561068E-2</v>
       </c>
       <c r="C8">
-        <v>1.4924820027501333E-2</v>
+        <v>1.7905872526601141E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9">
-        <v>199108</v>
+      <c r="A9" s="1">
+        <v>33451</v>
       </c>
       <c r="B9">
-        <v>3.8991353591677422E-3</v>
+        <v>2.2228720475305948E-3</v>
       </c>
       <c r="C9">
-        <v>-1.9802884258096589E-2</v>
+        <v>-2.3993335308113935E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10">
-        <v>199109</v>
+      <c r="A10" s="1">
+        <v>33482</v>
       </c>
       <c r="B10">
-        <v>1.0892219378680337E-2</v>
+        <v>8.0495042181929835E-3</v>
       </c>
       <c r="C10">
-        <v>3.3680302295066723E-2</v>
+        <v>3.4513307592153188E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11">
-        <v>199110</v>
+      <c r="A11" s="1">
+        <v>33512</v>
       </c>
       <c r="B11">
-        <v>1.5807592741298039E-2</v>
+        <v>1.3726397184501303E-2</v>
       </c>
       <c r="C11">
-        <v>-5.6921163444704492E-3</v>
+        <v>-1.9220352824009593E-3</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12">
-        <v>199111</v>
+      <c r="A12" s="1">
+        <v>33543</v>
       </c>
       <c r="B12">
-        <v>-7.1283891843654523E-2</v>
+        <v>-7.1385435531097607E-2</v>
       </c>
       <c r="C12">
-        <v>1.1103772751371838E-2</v>
+        <v>1.0320254007040085E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13">
-        <v>199112</v>
+      <c r="A13" s="1">
+        <v>33573</v>
       </c>
       <c r="B13">
-        <v>-0.10217974589873603</v>
+        <v>-9.9346910375309141E-2</v>
       </c>
       <c r="C13">
-        <v>-6.2177712957445404E-2</v>
+        <v>-5.7670051436685292E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14">
-        <v>199201</v>
+      <c r="A14" s="1">
+        <v>33604</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -510,19 +515,19 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15">
-        <v>199202</v>
+      <c r="A15" s="1">
+        <v>33635</v>
       </c>
       <c r="B15">
-        <v>2.788591980072538E-2</v>
+        <v>2.940373897734623E-2</v>
       </c>
       <c r="C15">
-        <v>2.1797633785135967E-2</v>
+        <v>2.2288303113358623E-2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16">
-        <v>199203</v>
+      <c r="A16" s="1">
+        <v>33664</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -532,30 +537,30 @@
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17">
-        <v>199204</v>
+      <c r="A17" s="1">
+        <v>33695</v>
       </c>
       <c r="B17">
-        <v>-0.14040658072787826</v>
+        <v>-0.1415957150633658</v>
       </c>
       <c r="C17">
-        <v>-1.2941850861499196E-2</v>
+        <v>-1.4872640925119616E-2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18">
-        <v>199205</v>
+      <c r="A18" s="1">
+        <v>33725</v>
       </c>
       <c r="B18">
-        <v>1.2929808989881525E-2</v>
+        <v>1.114952190909332E-2</v>
       </c>
       <c r="C18">
-        <v>1.1220882872814256E-2</v>
+        <v>9.0639492738675519E-3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19">
-        <v>199206</v>
+      <c r="A19" s="1">
+        <v>33756</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -565,74 +570,74 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20">
-        <v>199207</v>
+      <c r="A20" s="1">
+        <v>33786</v>
       </c>
       <c r="B20">
-        <v>-0.23787084948700207</v>
+        <v>-0.23653734661570133</v>
       </c>
       <c r="C20">
-        <v>8.7729719628161854E-3</v>
+        <v>1.7882665989094743E-3</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21">
-        <v>199208</v>
+      <c r="A21" s="1">
+        <v>33817</v>
       </c>
       <c r="B21">
-        <v>-1.8011630930333609E-2</v>
+        <v>-1.7251639214124592E-2</v>
       </c>
       <c r="C21">
-        <v>-4.7553684550826203E-3</v>
+        <v>-6.3013272828962019E-3</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22">
-        <v>199209</v>
+      <c r="A22" s="1">
+        <v>33848</v>
       </c>
       <c r="B22">
-        <v>-3.1017749127994595E-2</v>
+        <v>-3.3665111445014703E-2</v>
       </c>
       <c r="C22">
-        <v>1.2112051576035388E-2</v>
+        <v>1.4943484531680717E-2</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23">
-        <v>199210</v>
+      <c r="A23" s="1">
+        <v>33878</v>
       </c>
       <c r="B23">
-        <v>5.2349290934772315E-2</v>
+        <v>5.2996954487953052E-2</v>
       </c>
       <c r="C23">
-        <v>-8.3838238650875627E-3</v>
+        <v>-9.6769751860765023E-3</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24">
-        <v>199211</v>
+      <c r="A24" s="1">
+        <v>33909</v>
       </c>
       <c r="B24">
-        <v>4.8123552018388555E-2</v>
+        <v>4.8933730904347293E-2</v>
       </c>
       <c r="C24">
-        <v>1.2306650483540009E-2</v>
+        <v>9.3988464466642115E-3</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25">
-        <v>199212</v>
+      <c r="A25" s="1">
+        <v>33939</v>
       </c>
       <c r="B25">
-        <v>-4.268269874343868E-3</v>
+        <v>-7.816635206010952E-3</v>
       </c>
       <c r="C25">
-        <v>3.0066356755472E-2</v>
+        <v>3.3641067935321831E-2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26">
-        <v>199301</v>
+      <c r="A26" s="1">
+        <v>33970</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -642,30 +647,30 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27">
-        <v>199302</v>
+      <c r="A27" s="1">
+        <v>34001</v>
       </c>
       <c r="B27">
-        <v>2.7842070618759738E-2</v>
+        <v>2.7227152292873015E-2</v>
       </c>
       <c r="C27">
-        <v>-8.2353341033978324E-3</v>
+        <v>-1.3163262398740725E-2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28">
-        <v>199303</v>
+      <c r="A28" s="1">
+        <v>34029</v>
       </c>
       <c r="B28">
-        <v>1.1432777009288329E-2</v>
+        <v>1.464391725559188E-2</v>
       </c>
       <c r="C28">
-        <v>-5.8544061505984464E-4</v>
+        <v>-4.9818299410188151E-3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29">
-        <v>199304</v>
+      <c r="A29" s="1">
+        <v>34060</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -675,19 +680,19 @@
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30">
-        <v>199305</v>
+      <c r="A30" s="1">
+        <v>34090</v>
       </c>
       <c r="B30">
-        <v>1.4102963311730707E-2</v>
+        <v>1.4185038948483997E-2</v>
       </c>
       <c r="C30">
-        <v>-7.4656839909236564E-3</v>
+        <v>-8.0228580675931888E-3</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31">
-        <v>199306</v>
+      <c r="A31" s="1">
+        <v>34121</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -697,41 +702,41 @@
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32">
-        <v>199307</v>
+      <c r="A32" s="1">
+        <v>34151</v>
       </c>
       <c r="B32">
-        <v>7.0118110433412678E-4</v>
+        <v>9.4750107604174919E-4</v>
       </c>
       <c r="C32">
-        <v>7.7138696876137731E-3</v>
+        <v>7.8636206679300654E-3</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33">
-        <v>199308</v>
+      <c r="A33" s="1">
+        <v>34182</v>
       </c>
       <c r="B33">
-        <v>2.0159314174361249E-2</v>
+        <v>2.0103354591419622E-2</v>
       </c>
       <c r="C33">
-        <v>-2.1355959802666549E-3</v>
+        <v>-4.5453977787061348E-3</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34">
-        <v>199309</v>
+      <c r="A34" s="1">
+        <v>34213</v>
       </c>
       <c r="B34">
-        <v>4.0633437367603623E-2</v>
+        <v>3.9677409415312434E-2</v>
       </c>
       <c r="C34">
-        <v>-1.3915717132414619E-2</v>
+        <v>-1.2278626778508429E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35">
-        <v>199310</v>
+      <c r="A35" s="1">
+        <v>34243</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -741,30 +746,30 @@
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36">
-        <v>199311</v>
+      <c r="A36" s="1">
+        <v>34274</v>
       </c>
       <c r="B36">
-        <v>3.5912139757326121E-4</v>
+        <v>8.0703153593578852E-4</v>
       </c>
       <c r="C36">
-        <v>2.4908475796052716E-2</v>
+        <v>2.1898884430924099E-2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37">
-        <v>199312</v>
+      <c r="A37" s="1">
+        <v>34304</v>
       </c>
       <c r="B37">
-        <v>-3.15336503275414E-2</v>
+        <v>-3.0826594961490438E-2</v>
       </c>
       <c r="C37">
-        <v>2.1016669079427081E-2</v>
+        <v>1.6430719975950057E-2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38">
-        <v>199401</v>
+      <c r="A38" s="1">
+        <v>34335</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -774,52 +779,52 @@
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39">
-        <v>199402</v>
+      <c r="A39" s="1">
+        <v>34366</v>
       </c>
       <c r="B39">
-        <v>-3.3653726386612924E-2</v>
+        <v>-3.345256976857084E-2</v>
       </c>
       <c r="C39">
-        <v>2.1274902339475966E-3</v>
+        <v>-3.7303029882875603E-3</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40">
-        <v>199403</v>
+      <c r="A40" s="1">
+        <v>34394</v>
       </c>
       <c r="B40">
-        <v>-1.3966922771363431E-2</v>
+        <v>-1.2655770314167409E-2</v>
       </c>
       <c r="C40">
-        <v>-1.8145692574361546E-2</v>
+        <v>-1.9610802291027601E-2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41">
-        <v>199404</v>
+      <c r="A41" s="1">
+        <v>34425</v>
       </c>
       <c r="B41">
-        <v>0.11991166902924882</v>
+        <v>0.11965850237321149</v>
       </c>
       <c r="C41">
-        <v>7.9863026755051456E-4</v>
+        <v>-7.323463066281205E-5</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42">
-        <v>199405</v>
+      <c r="A42" s="1">
+        <v>34455</v>
       </c>
       <c r="B42">
-        <v>5.1254644652005354E-2</v>
+        <v>4.9943149273712129E-2</v>
       </c>
       <c r="C42">
-        <v>2.2137838004760199E-2</v>
+        <v>2.23195047877905E-2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43">
-        <v>199406</v>
+      <c r="A43" s="1">
+        <v>34486</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -829,41 +834,41 @@
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44">
-        <v>199407</v>
+      <c r="A44" s="1">
+        <v>34516</v>
       </c>
       <c r="B44">
-        <v>-1.5262143941718487E-2</v>
+        <v>-1.7333320358294213E-2</v>
       </c>
       <c r="C44">
-        <v>-1.5127488295966843E-3</v>
+        <v>-1.3770387052267985E-3</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45">
-        <v>199408</v>
+      <c r="A45" s="1">
+        <v>34547</v>
       </c>
       <c r="B45">
-        <v>1.6876234366834551E-3</v>
+        <v>4.6658475898716904E-5</v>
       </c>
       <c r="C45">
-        <v>-9.9575683383128118E-3</v>
+        <v>-1.096680597939422E-2</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46">
-        <v>199409</v>
+      <c r="A46" s="1">
+        <v>34578</v>
       </c>
       <c r="B46">
-        <v>-5.3542674415123989E-2</v>
+        <v>-5.2329738262047461E-2</v>
       </c>
       <c r="C46">
-        <v>7.8515981175800702E-3</v>
+        <v>9.8154283551655508E-3</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47">
-        <v>199410</v>
+      <c r="A47" s="1">
+        <v>34608</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -873,30 +878,30 @@
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48">
-        <v>199411</v>
+      <c r="A48" s="1">
+        <v>34639</v>
       </c>
       <c r="B48">
-        <v>5.5611040873331442E-2</v>
+        <v>5.7420421551058427E-2</v>
       </c>
       <c r="C48">
-        <v>7.4006152425142788E-3</v>
+        <v>6.9039956949028562E-3</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49">
-        <v>199412</v>
+      <c r="A49" s="1">
+        <v>34669</v>
       </c>
       <c r="B49">
-        <v>-5.8827079533516589E-2</v>
+        <v>-5.9599849012053806E-2</v>
       </c>
       <c r="C49">
-        <v>1.5632330965227759E-2</v>
+        <v>1.3382778623080837E-2</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50">
-        <v>199501</v>
+      <c r="A50" s="1">
+        <v>34700</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -906,30 +911,30 @@
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51">
-        <v>199502</v>
+      <c r="A51" s="1">
+        <v>34731</v>
       </c>
       <c r="B51">
-        <v>-1.2556455090716097E-2</v>
+        <v>-1.4731381640359035E-2</v>
       </c>
       <c r="C51">
-        <v>-2.0237138273248471E-2</v>
+        <v>-2.2321054006806527E-2</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52">
-        <v>199503</v>
+      <c r="A52" s="1">
+        <v>34759</v>
       </c>
       <c r="B52">
-        <v>3.3623455857975951E-2</v>
+        <v>3.0031359488641541E-2</v>
       </c>
       <c r="C52">
-        <v>-5.6397776600328187E-3</v>
+        <v>-3.4565396298456355E-3</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53">
-        <v>199504</v>
+      <c r="A53" s="1">
+        <v>34790</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -939,19 +944,19 @@
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54">
-        <v>199505</v>
+      <c r="A54" s="1">
+        <v>34820</v>
       </c>
       <c r="B54">
-        <v>3.2361397950610465E-2</v>
+        <v>3.1029011815710165E-2</v>
       </c>
       <c r="C54">
-        <v>-1.0321336915677357E-2</v>
+        <v>-1.0019437250402347E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55">
-        <v>199506</v>
+      <c r="A55" s="1">
+        <v>34851</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -961,41 +966,41 @@
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56">
-        <v>199507</v>
+      <c r="A56" s="1">
+        <v>34881</v>
       </c>
       <c r="B56">
-        <v>-8.1037114494880394E-2</v>
+        <v>-8.2203474473367844E-2</v>
       </c>
       <c r="C56">
-        <v>-3.4520955864580392E-2</v>
+        <v>-3.1448859981251243E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57">
-        <v>199508</v>
+      <c r="A57" s="1">
+        <v>34912</v>
       </c>
       <c r="B57">
-        <v>1.5325279727434075E-2</v>
+        <v>1.6306131931876012E-2</v>
       </c>
       <c r="C57">
-        <v>4.641273477361197E-3</v>
+        <v>3.637573249209684E-3</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58">
-        <v>199509</v>
+      <c r="A58" s="1">
+        <v>34943</v>
       </c>
       <c r="B58">
-        <v>7.7659805177246882E-3</v>
+        <v>8.2641672862974296E-3</v>
       </c>
       <c r="C58">
-        <v>2.2317887003543268E-2</v>
+        <v>2.3987792324304837E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59">
-        <v>199510</v>
+      <c r="A59" s="1">
+        <v>34973</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1005,41 +1010,41 @@
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60">
-        <v>199511</v>
+      <c r="A60" s="1">
+        <v>35004</v>
       </c>
       <c r="B60">
-        <v>5.0497291234715559E-2</v>
+        <v>5.1636991380671814E-2</v>
       </c>
       <c r="C60">
-        <v>-1.1538639901595257E-2</v>
+        <v>-1.2146233185758542E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61">
-        <v>199512</v>
+      <c r="A61" s="1">
+        <v>35034</v>
       </c>
       <c r="B61">
-        <v>-3.0966055159031104E-2</v>
+        <v>-3.3594643729901133E-2</v>
       </c>
       <c r="C61">
-        <v>-1.2368435208250355E-2</v>
+        <v>-1.1007491500705565E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62">
-        <v>199601</v>
+      <c r="A62" s="1">
+        <v>35065</v>
       </c>
       <c r="B62">
-        <v>5.2159164074013368E-3</v>
+        <v>4.8995159724562684E-3</v>
       </c>
       <c r="C62">
-        <v>-7.1297809623977956E-3</v>
+        <v>-5.9421180029040968E-3</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63">
-        <v>199602</v>
+      <c r="A63" s="1">
+        <v>35096</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -1049,19 +1054,19 @@
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64">
-        <v>199603</v>
+      <c r="A64" s="1">
+        <v>35125</v>
       </c>
       <c r="B64">
-        <v>1.7147221185086457E-2</v>
+        <v>1.7423942477493955E-2</v>
       </c>
       <c r="C64">
-        <v>2.7421179206769883E-3</v>
+        <v>4.9976962824727807E-3</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65">
-        <v>199604</v>
+      <c r="A65" s="1">
+        <v>35156</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1071,19 +1076,19 @@
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66">
-        <v>199605</v>
+      <c r="A66" s="1">
+        <v>35186</v>
       </c>
       <c r="B66">
-        <v>1.298285816678644E-2</v>
+        <v>1.3160939661581468E-2</v>
       </c>
       <c r="C66">
-        <v>1.1330132006957778E-2</v>
+        <v>1.300647589058398E-2</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67">
-        <v>199606</v>
+      <c r="A67" s="1">
+        <v>35217</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1093,41 +1098,41 @@
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68">
-        <v>199607</v>
+      <c r="A68" s="1">
+        <v>35247</v>
       </c>
       <c r="B68">
-        <v>-2.8524582338400026E-2</v>
+        <v>-2.8846944239019769E-2</v>
       </c>
       <c r="C68">
-        <v>2.8031067696072005E-3</v>
+        <v>1.6132289006944283E-3</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69">
-        <v>199608</v>
+      <c r="A69" s="1">
+        <v>35278</v>
       </c>
       <c r="B69">
-        <v>1.9245419098226579E-2</v>
+        <v>1.8872310846761671E-2</v>
       </c>
       <c r="C69">
-        <v>-1.7200264514019743E-3</v>
+        <v>-1.269908689812433E-3</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70">
-        <v>199609</v>
+      <c r="A70" s="1">
+        <v>35309</v>
       </c>
       <c r="B70">
-        <v>-0.11739674475796494</v>
+        <v>-0.11846074473548178</v>
       </c>
       <c r="C70">
-        <v>-1.0558892998175451E-2</v>
+        <v>-1.1104768824483902E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71">
-        <v>199610</v>
+      <c r="A71" s="1">
+        <v>35339</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1137,30 +1142,30 @@
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72">
-        <v>199611</v>
+      <c r="A72" s="1">
+        <v>35370</v>
       </c>
       <c r="B72">
-        <v>-2.3449767574926627E-3</v>
+        <v>-2.772576451868786E-3</v>
       </c>
       <c r="C72">
-        <v>-4.9326018501688537E-3</v>
+        <v>-1.5892353536909841E-3</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73">
-        <v>199612</v>
+      <c r="A73" s="1">
+        <v>35400</v>
       </c>
       <c r="B73">
-        <v>6.9545769273849575E-3</v>
+        <v>6.4653052068760156E-3</v>
       </c>
       <c r="C73">
-        <v>-6.5085911127044094E-4</v>
+        <v>-1.8304501902838208E-3</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74">
-        <v>199701</v>
+      <c r="A74" s="1">
+        <v>35431</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1170,30 +1175,30 @@
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75">
-        <v>199702</v>
+      <c r="A75" s="1">
+        <v>35462</v>
       </c>
       <c r="B75">
-        <v>2.141245182594969E-2</v>
+        <v>1.816312639455326E-2</v>
       </c>
       <c r="C75">
-        <v>-9.7579832056331351E-3</v>
+        <v>-1.0923768171663918E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76">
-        <v>199703</v>
+      <c r="A76" s="1">
+        <v>35490</v>
       </c>
       <c r="B76">
-        <v>6.4693496633258005E-2</v>
+        <v>6.2946709663487685E-2</v>
       </c>
       <c r="C76">
-        <v>3.4466232496525428E-3</v>
+        <v>-1.1632169458082441E-3</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77">
-        <v>199704</v>
+      <c r="A77" s="1">
+        <v>35521</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -1203,19 +1208,19 @@
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78">
-        <v>199705</v>
+      <c r="A78" s="1">
+        <v>35551</v>
       </c>
       <c r="B78">
-        <v>-2.7108178792728636E-2</v>
+        <v>-2.7361127190916011E-2</v>
       </c>
       <c r="C78">
-        <v>-1.98188977181461E-2</v>
+        <v>-1.963107354941411E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79">
-        <v>199706</v>
+      <c r="A79" s="1">
+        <v>35582</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1225,41 +1230,41 @@
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80">
-        <v>199707</v>
+      <c r="A80" s="1">
+        <v>35612</v>
       </c>
       <c r="B80">
-        <v>-8.8049787216365055E-3</v>
+        <v>-1.0150123213724046E-2</v>
       </c>
       <c r="C80">
-        <v>-4.4824870351006935E-3</v>
+        <v>-2.8573496736858141E-3</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81">
-        <v>199708</v>
+      <c r="A81" s="1">
+        <v>35643</v>
       </c>
       <c r="B81">
-        <v>1.5656567020295758E-2</v>
+        <v>1.6673621860046381E-2</v>
       </c>
       <c r="C81">
-        <v>-2.7971330335566855E-3</v>
+        <v>-5.0458053216250777E-4</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82">
-        <v>199709</v>
+      <c r="A82" s="1">
+        <v>35674</v>
       </c>
       <c r="B82">
-        <v>8.1328694772976416E-3</v>
+        <v>6.9783334991744732E-3</v>
       </c>
       <c r="C82">
-        <v>1.0959364126234165E-2</v>
+        <v>1.4271942974947625E-2</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83">
-        <v>199710</v>
+      <c r="A83" s="1">
+        <v>35704</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -1269,30 +1274,30 @@
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84">
-        <v>199711</v>
+      <c r="A84" s="1">
+        <v>35735</v>
       </c>
       <c r="B84">
-        <v>5.0811859831491942E-3</v>
+        <v>2.5953747224714825E-3</v>
       </c>
       <c r="C84">
-        <v>3.1964219901340699E-3</v>
+        <v>2.8394471177251657E-3</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85">
-        <v>199712</v>
+      <c r="A85" s="1">
+        <v>35765</v>
       </c>
       <c r="B85">
-        <v>-1.3733926941647889E-2</v>
+        <v>-1.5098583753081093E-2</v>
       </c>
       <c r="C85">
-        <v>5.7361839409410288E-3</v>
+        <v>9.0642544191435748E-3</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86">
-        <v>199801</v>
+      <c r="A86" s="1">
+        <v>35796</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -1302,30 +1307,30 @@
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87">
-        <v>199802</v>
+      <c r="A87" s="1">
+        <v>35827</v>
       </c>
       <c r="B87">
-        <v>2.2556387015602686E-2</v>
+        <v>2.1944944357866106E-2</v>
       </c>
       <c r="C87">
-        <v>-1.1908500949028518E-2</v>
+        <v>-1.1867769014806609E-2</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88">
-        <v>199803</v>
+      <c r="A88" s="1">
+        <v>35855</v>
       </c>
       <c r="B88">
-        <v>8.2542606250127562E-4</v>
+        <v>-3.7379361906936248E-4</v>
       </c>
       <c r="C88">
-        <v>6.147942707936848E-3</v>
+        <v>1.1310578676913874E-2</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89">
-        <v>199804</v>
+      <c r="A89" s="1">
+        <v>35886</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -1335,19 +1340,19 @@
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90">
-        <v>199805</v>
+      <c r="A90" s="1">
+        <v>35916</v>
       </c>
       <c r="B90">
-        <v>1.7147915850965104E-2</v>
+        <v>1.6123902878076052E-2</v>
       </c>
       <c r="C90">
-        <v>-1.1338813076908833E-2</v>
+        <v>-9.2835683502935726E-3</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91">
-        <v>199806</v>
+      <c r="A91" s="1">
+        <v>35947</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -1357,74 +1362,74 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92">
-        <v>199807</v>
+      <c r="A92" s="1">
+        <v>35977</v>
       </c>
       <c r="B92">
-        <v>1.7788643723570183E-2</v>
+        <v>1.6752603064542737E-2</v>
       </c>
       <c r="C92">
-        <v>-5.626914018502821E-3</v>
+        <v>-5.8097920063680808E-4</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93">
-        <v>199808</v>
+      <c r="A93" s="1">
+        <v>36008</v>
       </c>
       <c r="B93">
-        <v>1.6063041224984257E-2</v>
+        <v>1.4052115352917326E-2</v>
       </c>
       <c r="C93">
-        <v>3.6239016336744503E-3</v>
+        <v>8.1570597208650217E-3</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94">
-        <v>199809</v>
+      <c r="A94" s="1">
+        <v>36039</v>
       </c>
       <c r="B94">
-        <v>5.1151905784075261E-2</v>
+        <v>4.9221437544581637E-2</v>
       </c>
       <c r="C94">
-        <v>9.3655667132643179E-3</v>
+        <v>1.1812187123365236E-2</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95">
-        <v>199810</v>
+      <c r="A95" s="1">
+        <v>36069</v>
       </c>
       <c r="B95">
-        <v>-0.25546563228673563</v>
+        <v>-0.25739045956623358</v>
       </c>
       <c r="C95">
-        <v>8.6369320251772318E-3</v>
+        <v>7.7451762105287154E-3</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96">
-        <v>199811</v>
+      <c r="A96" s="1">
+        <v>36100</v>
       </c>
       <c r="B96">
-        <v>-1.3109415360079714E-2</v>
+        <v>-1.3115482288820556E-2</v>
       </c>
       <c r="C96">
-        <v>-1.5197628622207245E-3</v>
+        <v>-9.2208549321712318E-4</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97">
-        <v>199812</v>
+      <c r="A97" s="1">
+        <v>36130</v>
       </c>
       <c r="B97">
-        <v>-6.4117335383316182E-2</v>
+        <v>-6.5637044635580191E-2</v>
       </c>
       <c r="C97">
-        <v>1.1564997427618632E-2</v>
+        <v>1.2450013758460266E-2</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98">
-        <v>199901</v>
+      <c r="A98" s="1">
+        <v>36161</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -1434,30 +1439,30 @@
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99">
-        <v>199902</v>
+      <c r="A99" s="1">
+        <v>36192</v>
       </c>
       <c r="B99">
-        <v>3.7645533328187458E-2</v>
+        <v>3.6969536748920791E-2</v>
       </c>
       <c r="C99">
-        <v>-4.2943243263740289E-3</v>
+        <v>-3.7405000963556582E-3</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100">
-        <v>199903</v>
+      <c r="A100" s="1">
+        <v>36220</v>
       </c>
       <c r="B100">
-        <v>-3.2336881310497445E-2</v>
+        <v>-3.8416510321066466E-2</v>
       </c>
       <c r="C100">
-        <v>2.2596353009732111E-3</v>
+        <v>5.2343324064516791E-3</v>
       </c>
     </row>
     <row r="101" spans="1:3">
-      <c r="A101">
-        <v>199904</v>
+      <c r="A101" s="1">
+        <v>36251</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -1467,30 +1472,30 @@
       </c>
     </row>
     <row r="102" spans="1:3">
-      <c r="A102">
-        <v>199905</v>
+      <c r="A102" s="1">
+        <v>36281</v>
       </c>
       <c r="B102">
-        <v>6.9903063966802945E-2</v>
+        <v>6.5750244003841343E-2</v>
       </c>
       <c r="C102">
-        <v>4.7506784885979828E-3</v>
+        <v>7.125979036042427E-3</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103">
-        <v>199906</v>
+      <c r="A103" s="1">
+        <v>36312</v>
       </c>
       <c r="B103">
-        <v>-6.7874195946688712E-2</v>
+        <v>-7.0007967481914568E-2</v>
       </c>
       <c r="C103">
-        <v>-7.8248559676903987E-4</v>
+        <v>3.5628671836901026E-3</v>
       </c>
     </row>
     <row r="104" spans="1:3">
-      <c r="A104">
-        <v>199907</v>
+      <c r="A104" s="1">
+        <v>36342</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -1500,19 +1505,19 @@
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105">
-        <v>199908</v>
+      <c r="A105" s="1">
+        <v>36373</v>
       </c>
       <c r="B105">
-        <v>-5.3257601688387378E-3</v>
+        <v>-8.2206261659496932E-3</v>
       </c>
       <c r="C105">
-        <v>1.1337687082252149E-2</v>
+        <v>1.5699218195849143E-2</v>
       </c>
     </row>
     <row r="106" spans="1:3">
-      <c r="A106">
-        <v>199909</v>
+      <c r="A106" s="1">
+        <v>36404</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -1522,41 +1527,41 @@
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107">
-        <v>199910</v>
+      <c r="A107" s="1">
+        <v>36434</v>
       </c>
       <c r="B107">
-        <v>2.4401543691791261E-2</v>
+        <v>2.4605359094505931E-2</v>
       </c>
       <c r="C107">
-        <v>1.2734963246859462E-2</v>
+        <v>1.3575539287345027E-2</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108">
-        <v>199911</v>
+      <c r="A108" s="1">
+        <v>36465</v>
       </c>
       <c r="B108">
-        <v>8.6473208494448658E-2</v>
+        <v>8.378456089300837E-2</v>
       </c>
       <c r="C108">
-        <v>6.991850531855341E-3</v>
+        <v>8.9811484218102755E-3</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109">
-        <v>199912</v>
+      <c r="A109" s="1">
+        <v>36495</v>
       </c>
       <c r="B109">
-        <v>-1.6788899393704228E-3</v>
+        <v>-4.147112595218173E-3</v>
       </c>
       <c r="C109">
-        <v>1.1250141040906965E-2</v>
+        <v>9.576801038465043E-3</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110">
-        <v>200001</v>
+      <c r="A110" s="1">
+        <v>36526</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -1566,30 +1571,30 @@
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111">
-        <v>200002</v>
+      <c r="A111" s="1">
+        <v>36557</v>
       </c>
       <c r="B111">
-        <v>6.8128490869548003E-3</v>
+        <v>4.5402231736683682E-3</v>
       </c>
       <c r="C111">
-        <v>-4.2273146748168832E-3</v>
+        <v>-3.3779121727029087E-3</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112">
-        <v>200003</v>
+      <c r="A112" s="1">
+        <v>36586</v>
       </c>
       <c r="B112">
-        <v>-3.4710567036216444E-2</v>
+        <v>-3.4767499304156818E-2</v>
       </c>
       <c r="C112">
-        <v>1.4668185033324593E-2</v>
+        <v>1.5369303298187406E-2</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113">
-        <v>200004</v>
+      <c r="A113" s="1">
+        <v>36617</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -1599,30 +1604,30 @@
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114">
-        <v>200005</v>
+      <c r="A114" s="1">
+        <v>36647</v>
       </c>
       <c r="B114">
-        <v>4.4962195645912896E-2</v>
+        <v>4.4910020240544982E-2</v>
       </c>
       <c r="C114">
-        <v>1.0616739503187186E-2</v>
+        <v>7.2034980681264368E-3</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115">
-        <v>200006</v>
+      <c r="A115" s="1">
+        <v>36678</v>
       </c>
       <c r="B115">
-        <v>-1.616588497459057E-2</v>
+        <v>-1.6727733803980408E-2</v>
       </c>
       <c r="C115">
-        <v>-2.326425506572429E-3</v>
+        <v>-1.6593154536884362E-3</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116">
-        <v>200007</v>
+      <c r="A116" s="1">
+        <v>36708</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -1632,19 +1637,19 @@
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117">
-        <v>200008</v>
+      <c r="A117" s="1">
+        <v>36739</v>
       </c>
       <c r="B117">
-        <v>1.5231965010553478E-2</v>
+        <v>1.1403145426068923E-2</v>
       </c>
       <c r="C117">
-        <v>-1.2473445347997023E-2</v>
+        <v>-9.8518361915643383E-3</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118">
-        <v>200009</v>
+      <c r="A118" s="1">
+        <v>36770</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -1654,52 +1659,52 @@
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119">
-        <v>200010</v>
+      <c r="A119" s="1">
+        <v>36800</v>
       </c>
       <c r="B119">
-        <v>5.4344092343348388E-2</v>
+        <v>5.2609036195119627E-2</v>
       </c>
       <c r="C119">
-        <v>4.3152778132944589E-3</v>
+        <v>5.0780927259828201E-3</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120">
-        <v>200011</v>
+      <c r="A120" s="1">
+        <v>36831</v>
       </c>
       <c r="B120">
-        <v>6.6112282938316537E-3</v>
+        <v>5.2304207757017393E-3</v>
       </c>
       <c r="C120">
-        <v>3.9563604187668475E-3</v>
+        <v>5.6940989343315478E-3</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121">
-        <v>200012</v>
+      <c r="A121" s="1">
+        <v>36861</v>
       </c>
       <c r="B121">
-        <v>2.1988626742599049E-2</v>
+        <v>2.1812585283530046E-2</v>
       </c>
       <c r="C121">
-        <v>-1.3672549400023316E-2</v>
+        <v>-1.1248045500585667E-2</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122">
-        <v>200101</v>
+      <c r="A122" s="1">
+        <v>36892</v>
       </c>
       <c r="B122">
-        <v>-5.0268976717465538E-2</v>
+        <v>-5.225405735289599E-2</v>
       </c>
       <c r="C122">
-        <v>-5.2566222204499094E-2</v>
+        <v>-4.528503806543157E-2</v>
       </c>
     </row>
     <row r="123" spans="1:3">
-      <c r="A123">
-        <v>200102</v>
+      <c r="A123" s="1">
+        <v>36923</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -1709,52 +1714,52 @@
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124">
-        <v>200103</v>
+      <c r="A124" s="1">
+        <v>36951</v>
       </c>
       <c r="B124">
-        <v>-5.5826795988744501E-2</v>
+        <v>-5.5909082079282538E-2</v>
       </c>
       <c r="C124">
-        <v>5.281406386349656E-3</v>
+        <v>2.7881718591166137E-3</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125">
-        <v>200104</v>
+      <c r="A125" s="1">
+        <v>36982</v>
       </c>
       <c r="B125">
-        <v>-0.34285702920994765</v>
+        <v>-0.3430020393142264</v>
       </c>
       <c r="C125">
-        <v>-1.5456417055516022E-2</v>
+        <v>-1.5909183786058753E-2</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126">
-        <v>200105</v>
+      <c r="A126" s="1">
+        <v>37012</v>
       </c>
       <c r="B126">
-        <v>-0.11811317117506082</v>
+        <v>-0.11678515561277505</v>
       </c>
       <c r="C126">
-        <v>2.000328049651879E-3</v>
+        <v>2.5110979478750219E-3</v>
       </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127">
-        <v>200106</v>
+      <c r="A127" s="1">
+        <v>37043</v>
       </c>
       <c r="B127">
-        <v>3.3520547261633615E-2</v>
+        <v>3.2382926544277088E-2</v>
       </c>
       <c r="C127">
-        <v>-6.8944334210155993E-3</v>
+        <v>-8.7846405982128263E-3</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128">
-        <v>200107</v>
+      <c r="A128" s="1">
+        <v>37073</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -1764,74 +1769,74 @@
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129">
-        <v>200108</v>
+      <c r="A129" s="1">
+        <v>37104</v>
       </c>
       <c r="B129">
-        <v>5.0202602579274933E-2</v>
+        <v>4.8560798451289647E-2</v>
       </c>
       <c r="C129">
-        <v>8.0036842815282144E-3</v>
+        <v>1.5475175060998462E-2</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130">
-        <v>200109</v>
+      <c r="A130" s="1">
+        <v>37135</v>
       </c>
       <c r="B130">
-        <v>-2.3348706890100893E-2</v>
+        <v>0</v>
       </c>
       <c r="C130">
-        <v>-7.1356456742703005E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131">
-        <v>200110</v>
+      <c r="A131" s="1">
+        <v>37165</v>
       </c>
       <c r="B131">
-        <v>3.9593652255221889E-3</v>
+        <v>4.1570574228303771E-4</v>
       </c>
       <c r="C131">
-        <v>-2.8264262712967531E-2</v>
+        <v>-3.7257003617212188E-2</v>
       </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132">
-        <v>200111</v>
+      <c r="A132" s="1">
+        <v>37196</v>
       </c>
       <c r="B132">
-        <v>-1.6695400966228E-2</v>
+        <v>-1.3120633880059573E-2</v>
       </c>
       <c r="C132">
-        <v>-1.405459172061254E-2</v>
+        <v>-1.1087676791550444E-2</v>
       </c>
     </row>
     <row r="133" spans="1:3">
-      <c r="A133">
-        <v>200112</v>
+      <c r="A133" s="1">
+        <v>37226</v>
       </c>
       <c r="B133">
-        <v>2.7115920809522569E-2</v>
+        <v>2.6277471253646628E-2</v>
       </c>
       <c r="C133">
-        <v>2.7654410830921933E-3</v>
+        <v>7.0222377066054553E-3</v>
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134">
-        <v>200201</v>
+      <c r="A134" s="1">
+        <v>37257</v>
       </c>
       <c r="B134">
-        <v>1.8782214915863495E-2</v>
+        <v>1.9928576308304219E-2</v>
       </c>
       <c r="C134">
-        <v>3.3509482983558693E-2</v>
+        <v>2.4029622821919554E-2</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135">
-        <v>200202</v>
+      <c r="A135" s="1">
+        <v>37288</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -1841,19 +1846,19 @@
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136">
-        <v>200203</v>
+      <c r="A136" s="1">
+        <v>37316</v>
       </c>
       <c r="B136">
-        <v>-2.9832936393673834E-2</v>
+        <v>-2.9455021197487628E-2</v>
       </c>
       <c r="C136">
-        <v>2.8413884000884137E-2</v>
+        <v>3.2843155272120408E-2</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137">
-        <v>200204</v>
+      <c r="A137" s="1">
+        <v>37347</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -1863,30 +1868,30 @@
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138">
-        <v>200205</v>
+      <c r="A138" s="1">
+        <v>37377</v>
       </c>
       <c r="B138">
-        <v>1.9131496249496019E-2</v>
+        <v>1.7103847112002715E-2</v>
       </c>
       <c r="C138">
-        <v>-1.6668090477410788E-2</v>
+        <v>-2.2625829196024825E-2</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139">
-        <v>200206</v>
+      <c r="A139" s="1">
+        <v>37408</v>
       </c>
       <c r="B139">
-        <v>2.1869497858116323E-2</v>
+        <v>2.2926643054345067E-2</v>
       </c>
       <c r="C139">
-        <v>-1.0850877672202268E-2</v>
+        <v>-8.7848917971460189E-3</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140">
-        <v>200207</v>
+      <c r="A140" s="1">
+        <v>37438</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -1896,30 +1901,30 @@
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141">
-        <v>200208</v>
+      <c r="A141" s="1">
+        <v>37469</v>
       </c>
       <c r="B141">
-        <v>-3.1300496561733893E-2</v>
+        <v>-3.110407054861393E-2</v>
       </c>
       <c r="C141">
-        <v>1.4547557732561878E-2</v>
+        <v>1.4584595969959454E-2</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142">
-        <v>200209</v>
+      <c r="A142" s="1">
+        <v>37500</v>
       </c>
       <c r="B142">
-        <v>-1.8268771485147803E-2</v>
+        <v>-1.7927310668135431E-2</v>
       </c>
       <c r="C142">
-        <v>8.362983323085129E-3</v>
+        <v>9.6167755306241672E-3</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143">
-        <v>200210</v>
+      <c r="A143" s="1">
+        <v>37530</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -1929,41 +1934,41 @@
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144">
-        <v>200211</v>
+      <c r="A144" s="1">
+        <v>37561</v>
       </c>
       <c r="B144">
-        <v>-5.711633303846253E-2</v>
+        <v>-5.6445626097129845E-2</v>
       </c>
       <c r="C144">
-        <v>-2.1012168354510918E-2</v>
+        <v>-2.0557259832982108E-2</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145">
-        <v>200212</v>
+      <c r="A145" s="1">
+        <v>37591</v>
       </c>
       <c r="B145">
-        <v>3.1540435263310969E-2</v>
+        <v>3.1574827546480562E-2</v>
       </c>
       <c r="C145">
-        <v>-6.6745278508410569E-3</v>
+        <v>-4.6788820032606544E-3</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146">
-        <v>200301</v>
+      <c r="A146" s="1">
+        <v>37622</v>
       </c>
       <c r="B146">
-        <v>3.350378128181894E-2</v>
+        <v>3.1451215579900313E-2</v>
       </c>
       <c r="C146">
-        <v>3.1832639931324312E-2</v>
+        <v>3.1343233905880626E-2</v>
       </c>
     </row>
     <row r="147" spans="1:3">
-      <c r="A147">
-        <v>200302</v>
+      <c r="A147" s="1">
+        <v>37653</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -1973,19 +1978,19 @@
       </c>
     </row>
     <row r="148" spans="1:3">
-      <c r="A148">
-        <v>200303</v>
+      <c r="A148" s="1">
+        <v>37681</v>
       </c>
       <c r="B148">
-        <v>-3.5556723214554345E-3</v>
+        <v>-3.8226768195537119E-3</v>
       </c>
       <c r="C148">
-        <v>-3.8882217276085336E-3</v>
+        <v>-4.0174122001752815E-3</v>
       </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149">
-        <v>200304</v>
+      <c r="A149" s="1">
+        <v>37712</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -1995,30 +2000,30 @@
       </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150">
-        <v>200305</v>
+      <c r="A150" s="1">
+        <v>37742</v>
       </c>
       <c r="B150">
-        <v>-2.8389859087652902E-2</v>
+        <v>-2.9215198960546293E-2</v>
       </c>
       <c r="C150">
-        <v>-7.2348095332518195E-3</v>
+        <v>-5.7082932484429534E-3</v>
       </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151">
-        <v>200306</v>
+      <c r="A151" s="1">
+        <v>37773</v>
       </c>
       <c r="B151">
-        <v>0.14879417604084264</v>
+        <v>0.148266666553029</v>
       </c>
       <c r="C151">
-        <v>-5.4086081300907096E-3</v>
+        <v>-3.1405808759714365E-3</v>
       </c>
     </row>
     <row r="152" spans="1:3">
-      <c r="A152">
-        <v>200307</v>
+      <c r="A152" s="1">
+        <v>37803</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -2028,41 +2033,41 @@
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153">
-        <v>200308</v>
+      <c r="A153" s="1">
+        <v>37834</v>
       </c>
       <c r="B153">
-        <v>2.5319112789247103E-2</v>
+        <v>2.4914796867650611E-2</v>
       </c>
       <c r="C153">
-        <v>2.7764069038895074E-2</v>
+        <v>2.6246245513525304E-2</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154">
-        <v>200309</v>
+      <c r="A154" s="1">
+        <v>37865</v>
       </c>
       <c r="B154">
-        <v>-2.7706165893852157E-2</v>
+        <v>-3.0211945634148207E-2</v>
       </c>
       <c r="C154">
-        <v>1.3710666177462451E-2</v>
+        <v>1.3143080496426214E-2</v>
       </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155">
-        <v>200310</v>
+      <c r="A155" s="1">
+        <v>37895</v>
       </c>
       <c r="B155">
-        <v>7.1126041442995044E-4</v>
+        <v>-4.5613510171139092E-4</v>
       </c>
       <c r="C155">
-        <v>-5.8712968657759611E-3</v>
+        <v>-9.8422756030382315E-3</v>
       </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156">
-        <v>200311</v>
+      <c r="A156" s="1">
+        <v>37926</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -2072,30 +2077,30 @@
       </c>
     </row>
     <row r="157" spans="1:3">
-      <c r="A157">
-        <v>200312</v>
+      <c r="A157" s="1">
+        <v>37956</v>
       </c>
       <c r="B157">
-        <v>4.3114333387815184E-3</v>
+        <v>4.9715183452810254E-3</v>
       </c>
       <c r="C157">
-        <v>1.0639711366438778E-2</v>
+        <v>9.4892880672520479E-3</v>
       </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158">
-        <v>200401</v>
+      <c r="A158" s="1">
+        <v>37987</v>
       </c>
       <c r="B158">
-        <v>-2.1431820684367102E-2</v>
+        <v>-2.1348456868911611E-2</v>
       </c>
       <c r="C158">
-        <v>2.0793215596892879E-2</v>
+        <v>1.9583498557523497E-2</v>
       </c>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159">
-        <v>200402</v>
+      <c r="A159" s="1">
+        <v>38018</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -2105,19 +2110,19 @@
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160">
-        <v>200403</v>
+      <c r="A160" s="1">
+        <v>38047</v>
       </c>
       <c r="B160">
-        <v>-1.5893305982059493E-2</v>
+        <v>-1.6981301172618739E-2</v>
       </c>
       <c r="C160">
-        <v>6.1821113677485579E-3</v>
+        <v>6.2150264349850786E-3</v>
       </c>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161">
-        <v>200404</v>
+      <c r="A161" s="1">
+        <v>38078</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -2127,30 +2132,30 @@
       </c>
     </row>
     <row r="162" spans="1:3">
-      <c r="A162">
-        <v>200405</v>
+      <c r="A162" s="1">
+        <v>38108</v>
       </c>
       <c r="B162">
-        <v>1.3876381089264406E-3</v>
+        <v>-8.1857106969479728E-5</v>
       </c>
       <c r="C162">
-        <v>1.3961031704643778E-2</v>
+        <v>1.1993263058683817E-2</v>
       </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163">
-        <v>200406</v>
+      <c r="A163" s="1">
+        <v>38139</v>
       </c>
       <c r="B163">
-        <v>-2.3416513187150077E-2</v>
+        <v>-2.4672449435788404E-2</v>
       </c>
       <c r="C163">
-        <v>2.120573385734148E-2</v>
+        <v>2.0533410355158523E-2</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164">
-        <v>200407</v>
+      <c r="A164" s="1">
+        <v>38169</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -2160,30 +2165,30 @@
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165">
-        <v>200408</v>
+      <c r="A165" s="1">
+        <v>38200</v>
       </c>
       <c r="B165">
-        <v>1.292316604069192E-2</v>
+        <v>1.036984379941352E-2</v>
       </c>
       <c r="C165">
-        <v>-1.1177629230649452E-3</v>
+        <v>-5.4392035219416254E-5</v>
       </c>
     </row>
     <row r="166" spans="1:3">
-      <c r="A166">
-        <v>200409</v>
+      <c r="A166" s="1">
+        <v>38231</v>
       </c>
       <c r="B166">
-        <v>-5.7233003737137576E-3</v>
+        <v>-7.460588380106669E-3</v>
       </c>
       <c r="C166">
-        <v>-3.2874598173542706E-3</v>
+        <v>-2.0609575094062251E-3</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167">
-        <v>200410</v>
+      <c r="A167" s="1">
+        <v>38261</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -2193,30 +2198,30 @@
       </c>
     </row>
     <row r="168" spans="1:3">
-      <c r="A168">
-        <v>200411</v>
+      <c r="A168" s="1">
+        <v>38292</v>
       </c>
       <c r="B168">
-        <v>1.5366931476870615E-2</v>
+        <v>1.397692240405912E-2</v>
       </c>
       <c r="C168">
-        <v>4.4827605123162473E-3</v>
+        <v>4.8467810143778883E-3</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169">
-        <v>200412</v>
+      <c r="A169" s="1">
+        <v>38322</v>
       </c>
       <c r="B169">
-        <v>-1.9403560553132024E-3</v>
+        <v>-2.4028493005463464E-3</v>
       </c>
       <c r="C169">
-        <v>7.2171590636949624E-3</v>
+        <v>8.6113655025648883E-3</v>
       </c>
     </row>
     <row r="170" spans="1:3">
-      <c r="A170">
-        <v>200501</v>
+      <c r="A170" s="1">
+        <v>38353</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -2226,30 +2231,30 @@
       </c>
     </row>
     <row r="171" spans="1:3">
-      <c r="A171">
-        <v>200502</v>
+      <c r="A171" s="1">
+        <v>38384</v>
       </c>
       <c r="B171">
-        <v>-4.1404661766471038E-3</v>
+        <v>-5.2076855926696921E-3</v>
       </c>
       <c r="C171">
-        <v>4.0089854316769534E-3</v>
+        <v>4.8797887175166029E-3</v>
       </c>
     </row>
     <row r="172" spans="1:3">
-      <c r="A172">
-        <v>200503</v>
+      <c r="A172" s="1">
+        <v>38412</v>
       </c>
       <c r="B172">
-        <v>-1.1468750186356787E-2</v>
+        <v>-1.1714357695933517E-2</v>
       </c>
       <c r="C172">
-        <v>1.8716818387976512E-2</v>
+        <v>1.7823552769619423E-2</v>
       </c>
     </row>
     <row r="173" spans="1:3">
-      <c r="A173">
-        <v>200504</v>
+      <c r="A173" s="1">
+        <v>38443</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -2259,30 +2264,30 @@
       </c>
     </row>
     <row r="174" spans="1:3">
-      <c r="A174">
-        <v>200505</v>
+      <c r="A174" s="1">
+        <v>38473</v>
       </c>
       <c r="B174">
-        <v>8.3503682193826496E-3</v>
+        <v>7.4630388943686269E-3</v>
       </c>
       <c r="C174">
-        <v>-3.4595263456753331E-3</v>
+        <v>-5.1183218311166637E-3</v>
       </c>
     </row>
     <row r="175" spans="1:3">
-      <c r="A175">
-        <v>200506</v>
+      <c r="A175" s="1">
+        <v>38504</v>
       </c>
       <c r="B175">
-        <v>2.2364314124610065E-2</v>
+        <v>2.2271970950755855E-2</v>
       </c>
       <c r="C175">
-        <v>-6.4272645281352068E-3</v>
+        <v>-5.5396251141289999E-3</v>
       </c>
     </row>
     <row r="176" spans="1:3">
-      <c r="A176">
-        <v>200507</v>
+      <c r="A176" s="1">
+        <v>38534</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -2292,30 +2297,30 @@
       </c>
     </row>
     <row r="177" spans="1:3">
-      <c r="A177">
-        <v>200508</v>
+      <c r="A177" s="1">
+        <v>38565</v>
       </c>
       <c r="B177">
-        <v>-1.3001336642918446E-2</v>
+        <v>-1.4569232284349285E-2</v>
       </c>
       <c r="C177">
-        <v>1.5554389110630102E-2</v>
+        <v>1.6427258011512465E-2</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178">
-        <v>200509</v>
+      <c r="A178" s="1">
+        <v>38596</v>
       </c>
       <c r="B178">
-        <v>1.7962667259439461E-2</v>
+        <v>1.6779786516881147E-2</v>
       </c>
       <c r="C178">
-        <v>8.3982502282594993E-3</v>
+        <v>1.0811361140017687E-2</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179">
-        <v>200510</v>
+      <c r="A179" s="1">
+        <v>38626</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -2325,41 +2330,41 @@
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180">
-        <v>200511</v>
+      <c r="A180" s="1">
+        <v>38657</v>
       </c>
       <c r="B180">
-        <v>4.1424907023963472E-3</v>
+        <v>3.5794548032946358E-3</v>
       </c>
       <c r="C180">
-        <v>-4.4930181761043018E-3</v>
+        <v>-7.5790100483097127E-3</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181">
-        <v>200512</v>
+      <c r="A181" s="1">
+        <v>38687</v>
       </c>
       <c r="B181">
-        <v>-7.9971077196726217E-4</v>
+        <v>-1.8459664285347946E-3</v>
       </c>
       <c r="C181">
-        <v>-3.1899746872982356E-3</v>
+        <v>-2.8265562243379684E-3</v>
       </c>
     </row>
     <row r="182" spans="1:3">
-      <c r="A182">
-        <v>200601</v>
+      <c r="A182" s="1">
+        <v>38718</v>
       </c>
       <c r="B182">
-        <v>1.4731280821028977E-2</v>
+        <v>1.2938715516584287E-2</v>
       </c>
       <c r="C182">
-        <v>1.4354841396507801E-2</v>
+        <v>1.3853910618583437E-2</v>
       </c>
     </row>
     <row r="183" spans="1:3">
-      <c r="A183">
-        <v>200602</v>
+      <c r="A183" s="1">
+        <v>38749</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -2369,19 +2374,19 @@
       </c>
     </row>
     <row r="184" spans="1:3">
-      <c r="A184">
-        <v>200603</v>
+      <c r="A184" s="1">
+        <v>38777</v>
       </c>
       <c r="B184">
-        <v>2.4567423475369013E-2</v>
+        <v>2.3983389654400906E-2</v>
       </c>
       <c r="C184">
-        <v>1.7298344956867918E-2</v>
+        <v>1.4754909159786205E-2</v>
       </c>
     </row>
     <row r="185" spans="1:3">
-      <c r="A185">
-        <v>200604</v>
+      <c r="A185" s="1">
+        <v>38808</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -2391,30 +2396,30 @@
       </c>
     </row>
     <row r="186" spans="1:3">
-      <c r="A186">
-        <v>200605</v>
+      <c r="A186" s="1">
+        <v>38838</v>
       </c>
       <c r="B186">
-        <v>5.169246618291648E-2</v>
+        <v>5.0901166702547213E-2</v>
       </c>
       <c r="C186">
-        <v>-1.3638244441113239E-2</v>
+        <v>-1.761319552346088E-2</v>
       </c>
     </row>
     <row r="187" spans="1:3">
-      <c r="A187">
-        <v>200606</v>
+      <c r="A187" s="1">
+        <v>38869</v>
       </c>
       <c r="B187">
-        <v>-4.8350424899993305E-3</v>
+        <v>-5.888260891685676E-3</v>
       </c>
       <c r="C187">
-        <v>-1.488318233474707E-2</v>
+        <v>-1.5026978772872271E-2</v>
       </c>
     </row>
     <row r="188" spans="1:3">
-      <c r="A188">
-        <v>200607</v>
+      <c r="A188" s="1">
+        <v>38899</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -2424,41 +2429,41 @@
       </c>
     </row>
     <row r="189" spans="1:3">
-      <c r="A189">
-        <v>200608</v>
+      <c r="A189" s="1">
+        <v>38930</v>
       </c>
       <c r="B189">
-        <v>-1.7819386786555303E-2</v>
+        <v>-1.8322462040177942E-2</v>
       </c>
       <c r="C189">
-        <v>-2.608767238360208E-3</v>
+        <v>-1.9270125607963387E-3</v>
       </c>
     </row>
     <row r="190" spans="1:3">
-      <c r="A190">
-        <v>200609</v>
+      <c r="A190" s="1">
+        <v>38961</v>
       </c>
       <c r="B190">
-        <v>2.2317852211262406E-2</v>
+        <v>2.161944924017219E-2</v>
       </c>
       <c r="C190">
-        <v>-1.8532416922890066E-2</v>
+        <v>-2.0777871760618672E-2</v>
       </c>
     </row>
     <row r="191" spans="1:3">
-      <c r="A191">
-        <v>200610</v>
+      <c r="A191" s="1">
+        <v>38991</v>
       </c>
       <c r="B191">
-        <v>-9.8485109740205877E-3</v>
+        <v>-1.0180515659261471E-2</v>
       </c>
       <c r="C191">
-        <v>9.2075223858731833E-3</v>
+        <v>1.6186628978431448E-2</v>
       </c>
     </row>
     <row r="192" spans="1:3">
-      <c r="A192">
-        <v>200611</v>
+      <c r="A192" s="1">
+        <v>39022</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -2468,30 +2473,30 @@
       </c>
     </row>
     <row r="193" spans="1:3">
-      <c r="A193">
-        <v>200612</v>
+      <c r="A193" s="1">
+        <v>39052</v>
       </c>
       <c r="B193">
-        <v>2.2023795502859898E-2</v>
+        <v>2.1061054931634147E-2</v>
       </c>
       <c r="C193">
-        <v>-1.281413406678036E-2</v>
+        <v>-7.8449490663204009E-3</v>
       </c>
     </row>
     <row r="194" spans="1:3">
-      <c r="A194">
-        <v>200701</v>
+      <c r="A194" s="1">
+        <v>39083</v>
       </c>
       <c r="B194">
-        <v>1.5596924793797318E-2</v>
+        <v>1.4137504456049828E-2</v>
       </c>
       <c r="C194">
-        <v>-5.9682615237014597E-3</v>
+        <v>-7.6005543312482257E-3</v>
       </c>
     </row>
     <row r="195" spans="1:3">
-      <c r="A195">
-        <v>200702</v>
+      <c r="A195" s="1">
+        <v>39114</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -2501,19 +2506,19 @@
       </c>
     </row>
     <row r="196" spans="1:3">
-      <c r="A196">
-        <v>200703</v>
+      <c r="A196" s="1">
+        <v>39142</v>
       </c>
       <c r="B196">
-        <v>4.0634427872154322E-3</v>
+        <v>3.4203593991075517E-3</v>
       </c>
       <c r="C196">
-        <v>-1.0209800749916828E-2</v>
+        <v>-1.027393305799678E-2</v>
       </c>
     </row>
     <row r="197" spans="1:3">
-      <c r="A197">
-        <v>200704</v>
+      <c r="A197" s="1">
+        <v>39173</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -2523,30 +2528,30 @@
       </c>
     </row>
     <row r="198" spans="1:3">
-      <c r="A198">
-        <v>200705</v>
+      <c r="A198" s="1">
+        <v>39203</v>
       </c>
       <c r="B198">
-        <v>2.9183904738610818E-2</v>
+        <v>2.8701090345988854E-2</v>
       </c>
       <c r="C198">
-        <v>2.6399045011887765E-3</v>
+        <v>1.5312769935800358E-3</v>
       </c>
     </row>
     <row r="199" spans="1:3">
-      <c r="A199">
-        <v>200706</v>
+      <c r="A199" s="1">
+        <v>39234</v>
       </c>
       <c r="B199">
-        <v>6.6853607753831314E-3</v>
+        <v>5.2489896897233114E-3</v>
       </c>
       <c r="C199">
-        <v>3.5275290281322827E-4</v>
+        <v>-4.5122372825533684E-4</v>
       </c>
     </row>
     <row r="200" spans="1:3">
-      <c r="A200">
-        <v>200707</v>
+      <c r="A200" s="1">
+        <v>39264</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -2556,41 +2561,41 @@
       </c>
     </row>
     <row r="201" spans="1:3">
-      <c r="A201">
-        <v>200708</v>
+      <c r="A201" s="1">
+        <v>39295</v>
       </c>
       <c r="B201">
-        <v>1.988030234545729E-2</v>
+        <v>1.5473676572935781E-2</v>
       </c>
       <c r="C201">
-        <v>-3.3352143837352174E-2</v>
+        <v>-1.6240390102222328E-2</v>
       </c>
     </row>
     <row r="202" spans="1:3">
-      <c r="A202">
-        <v>200709</v>
+      <c r="A202" s="1">
+        <v>39326</v>
       </c>
       <c r="B202">
-        <v>-0.14874631593484489</v>
+        <v>-0.15068936932373578</v>
       </c>
       <c r="C202">
-        <v>5.54725907560304E-3</v>
+        <v>2.6543660820704858E-3</v>
       </c>
     </row>
     <row r="203" spans="1:3">
-      <c r="A203">
-        <v>200710</v>
+      <c r="A203" s="1">
+        <v>39356</v>
       </c>
       <c r="B203">
-        <v>5.140920474626224E-2</v>
+        <v>5.102065875575839E-2</v>
       </c>
       <c r="C203">
-        <v>8.0822368387350497E-3</v>
+        <v>7.1017807020135881E-3</v>
       </c>
     </row>
     <row r="204" spans="1:3">
-      <c r="A204">
-        <v>200711</v>
+      <c r="A204" s="1">
+        <v>39387</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -2600,30 +2605,30 @@
       </c>
     </row>
     <row r="205" spans="1:3">
-      <c r="A205">
-        <v>200712</v>
+      <c r="A205" s="1">
+        <v>39417</v>
       </c>
       <c r="B205">
-        <v>8.4612710831249938E-2</v>
+        <v>8.4904455858068259E-2</v>
       </c>
       <c r="C205">
-        <v>-1.8053071392161682E-2</v>
+        <v>-1.4872073015003609E-2</v>
       </c>
     </row>
     <row r="206" spans="1:3">
-      <c r="A206">
-        <v>200801</v>
+      <c r="A206" s="1">
+        <v>39448</v>
       </c>
       <c r="B206">
-        <v>-0.17545069604618505</v>
+        <v>-0.17927699296762575</v>
       </c>
       <c r="C206">
-        <v>-5.3124120932370858E-2</v>
+        <v>-4.338624825696473E-2</v>
       </c>
     </row>
     <row r="207" spans="1:3">
-      <c r="A207">
-        <v>200802</v>
+      <c r="A207" s="1">
+        <v>39479</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -2633,30 +2638,30 @@
       </c>
     </row>
     <row r="208" spans="1:3">
-      <c r="A208">
-        <v>200803</v>
+      <c r="A208" s="1">
+        <v>39508</v>
       </c>
       <c r="B208">
-        <v>0.20179282525265257</v>
+        <v>0.19861487259703067</v>
       </c>
       <c r="C208">
-        <v>-3.4999235939825651E-2</v>
+        <v>-3.3926871322460861E-2</v>
       </c>
     </row>
     <row r="209" spans="1:3">
-      <c r="A209">
-        <v>200804</v>
+      <c r="A209" s="1">
+        <v>39539</v>
       </c>
       <c r="B209">
-        <v>-3.372155105121552E-4</v>
+        <v>-1.6978273080509587E-3</v>
       </c>
       <c r="C209">
-        <v>-1.0541741814936056E-2</v>
+        <v>-9.3809330449268272E-3</v>
       </c>
     </row>
     <row r="210" spans="1:3">
-      <c r="A210">
-        <v>200805</v>
+      <c r="A210" s="1">
+        <v>39569</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -2666,19 +2671,19 @@
       </c>
     </row>
     <row r="211" spans="1:3">
-      <c r="A211">
-        <v>200806</v>
+      <c r="A211" s="1">
+        <v>39600</v>
       </c>
       <c r="B211">
-        <v>1.2023411415297482E-2</v>
+        <v>6.5156198180350566E-3</v>
       </c>
       <c r="C211">
-        <v>7.5580473747555513E-3</v>
+        <v>9.8207951544293532E-3</v>
       </c>
     </row>
     <row r="212" spans="1:3">
-      <c r="A212">
-        <v>200807</v>
+      <c r="A212" s="1">
+        <v>39630</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -2688,74 +2693,74 @@
       </c>
     </row>
     <row r="213" spans="1:3">
-      <c r="A213">
-        <v>200808</v>
+      <c r="A213" s="1">
+        <v>39661</v>
       </c>
       <c r="B213">
-        <v>2.2298355193822266E-2</v>
+        <v>2.5831204624987378E-2</v>
       </c>
       <c r="C213">
-        <v>-4.6249603258273139E-3</v>
+        <v>-5.5582140506352795E-3</v>
       </c>
     </row>
     <row r="214" spans="1:3">
-      <c r="A214">
-        <v>200809</v>
+      <c r="A214" s="1">
+        <v>39692</v>
       </c>
       <c r="B214">
-        <v>0.13097256388879347</v>
+        <v>0.13217436749542474</v>
       </c>
       <c r="C214">
-        <v>1.1044666547903523E-3</v>
+        <v>-2.3730225760023177E-3</v>
       </c>
     </row>
     <row r="215" spans="1:3">
-      <c r="A215">
-        <v>200810</v>
+      <c r="A215" s="1">
+        <v>39722</v>
       </c>
       <c r="B215">
-        <v>-3.3433005752818948E-2</v>
+        <v>-3.1234000591370457E-2</v>
       </c>
       <c r="C215">
-        <v>-6.5227867694528069E-2</v>
+        <v>-7.2414986407188298E-2</v>
       </c>
     </row>
     <row r="216" spans="1:3">
-      <c r="A216">
-        <v>200811</v>
+      <c r="A216" s="1">
+        <v>39753</v>
       </c>
       <c r="B216">
-        <v>6.1584007115308273E-2</v>
+        <v>6.1055815351962708E-2</v>
       </c>
       <c r="C216">
-        <v>5.3929586362862214E-5</v>
+        <v>-3.2319748446661412E-3</v>
       </c>
     </row>
     <row r="217" spans="1:3">
-      <c r="A217">
-        <v>200812</v>
+      <c r="A217" s="1">
+        <v>39783</v>
       </c>
       <c r="B217">
-        <v>-2.6938466814464178E-2</v>
+        <v>-2.8858730883815457E-2</v>
       </c>
       <c r="C217">
-        <v>-8.6516202615010362E-2</v>
+        <v>-8.8781287261148312E-2</v>
       </c>
     </row>
     <row r="218" spans="1:3">
-      <c r="A218">
-        <v>200901</v>
+      <c r="A218" s="1">
+        <v>39814</v>
       </c>
       <c r="B218">
-        <v>2.9001148561689394E-2</v>
+        <v>2.9823147642768166E-2</v>
       </c>
       <c r="C218">
-        <v>1.2848191674225851E-2</v>
+        <v>1.850387512368766E-2</v>
       </c>
     </row>
     <row r="219" spans="1:3">
-      <c r="A219">
-        <v>200902</v>
+      <c r="A219" s="1">
+        <v>39845</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -2765,30 +2770,30 @@
       </c>
     </row>
     <row r="220" spans="1:3">
-      <c r="A220">
-        <v>200903</v>
+      <c r="A220" s="1">
+        <v>39873</v>
       </c>
       <c r="B220">
-        <v>6.7784406666607983E-2</v>
+        <v>6.8816427079641959E-2</v>
       </c>
       <c r="C220">
-        <v>-2.254876668813495E-2</v>
+        <v>-2.4161600574824318E-2</v>
       </c>
     </row>
     <row r="221" spans="1:3">
-      <c r="A221">
-        <v>200904</v>
+      <c r="A221" s="1">
+        <v>39904</v>
       </c>
       <c r="B221">
-        <v>-2.4433266607231004E-4</v>
+        <v>-7.0518349001668333E-4</v>
       </c>
       <c r="C221">
-        <v>3.0252890261658789E-3</v>
+        <v>1.4310555352038696E-3</v>
       </c>
     </row>
     <row r="222" spans="1:3">
-      <c r="A222">
-        <v>200905</v>
+      <c r="A222" s="1">
+        <v>39934</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -2798,19 +2803,19 @@
       </c>
     </row>
     <row r="223" spans="1:3">
-      <c r="A223">
-        <v>200906</v>
+      <c r="A223" s="1">
+        <v>39965</v>
       </c>
       <c r="B223">
-        <v>1.1974418631455085E-2</v>
+        <v>1.0501200899461953E-2</v>
       </c>
       <c r="C223">
-        <v>-2.9544208281497807E-3</v>
+        <v>-2.7685622249964958E-3</v>
       </c>
     </row>
     <row r="224" spans="1:3">
-      <c r="A224">
-        <v>200907</v>
+      <c r="A224" s="1">
+        <v>39995</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -2820,30 +2825,30 @@
       </c>
     </row>
     <row r="225" spans="1:3">
-      <c r="A225">
-        <v>200908</v>
+      <c r="A225" s="1">
+        <v>40026</v>
       </c>
       <c r="B225">
-        <v>1.5936241153899366E-2</v>
+        <v>1.6862354598337018E-2</v>
       </c>
       <c r="C225">
-        <v>1.3345769973410953E-2</v>
+        <v>1.1704078174917559E-2</v>
       </c>
     </row>
     <row r="226" spans="1:3">
-      <c r="A226">
-        <v>200909</v>
+      <c r="A226" s="1">
+        <v>40057</v>
       </c>
       <c r="B226">
-        <v>-2.0771685952973996E-2</v>
+        <v>-1.9167446616764075E-2</v>
       </c>
       <c r="C226">
-        <v>2.1695564798223727E-2</v>
+        <v>1.5881168586872052E-2</v>
       </c>
     </row>
     <row r="227" spans="1:3">
-      <c r="A227">
-        <v>200910</v>
+      <c r="A227" s="1">
+        <v>40087</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -2853,41 +2858,41 @@
       </c>
     </row>
     <row r="228" spans="1:3">
-      <c r="A228">
-        <v>200911</v>
+      <c r="A228" s="1">
+        <v>40118</v>
       </c>
       <c r="B228">
-        <v>-3.2285806157776417E-2</v>
+        <v>-3.1511915892517152E-2</v>
       </c>
       <c r="C228">
-        <v>1.5639714652597704E-2</v>
+        <v>1.0345097129988585E-2</v>
       </c>
     </row>
     <row r="229" spans="1:3">
-      <c r="A229">
-        <v>200912</v>
+      <c r="A229" s="1">
+        <v>40148</v>
       </c>
       <c r="B229">
-        <v>-2.6211189918382654E-2</v>
+        <v>-2.5406202752713894E-2</v>
       </c>
       <c r="C229">
-        <v>3.728083687472903E-2</v>
+        <v>3.1963766509685729E-2</v>
       </c>
     </row>
     <row r="230" spans="1:3">
-      <c r="A230">
-        <v>201001</v>
+      <c r="A230" s="1">
+        <v>40179</v>
       </c>
       <c r="B230">
-        <v>1.1924663409754567E-2</v>
+        <v>1.341505364444677E-2</v>
       </c>
       <c r="C230">
-        <v>-4.0426146423569488E-3</v>
+        <v>-7.4711863496983262E-3</v>
       </c>
     </row>
     <row r="231" spans="1:3">
-      <c r="A231">
-        <v>201002</v>
+      <c r="A231" s="1">
+        <v>40210</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -2897,30 +2902,30 @@
       </c>
     </row>
     <row r="232" spans="1:3">
-      <c r="A232">
-        <v>201003</v>
+      <c r="A232" s="1">
+        <v>40238</v>
       </c>
       <c r="B232">
-        <v>-1.8883493798088416E-2</v>
+        <v>-1.7627511856144615E-2</v>
       </c>
       <c r="C232">
-        <v>3.2650238626152558E-4</v>
+        <v>-5.3483807059490872E-3</v>
       </c>
     </row>
     <row r="233" spans="1:3">
-      <c r="A233">
-        <v>201004</v>
+      <c r="A233" s="1">
+        <v>40269</v>
       </c>
       <c r="B233">
-        <v>-1.6767924522707769E-2</v>
+        <v>-1.5870236461350246E-2</v>
       </c>
       <c r="C233">
-        <v>2.3314295733566113E-2</v>
+        <v>1.85719172571664E-2</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234">
-        <v>201005</v>
+      <c r="A234" s="1">
+        <v>40299</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -2930,19 +2935,19 @@
       </c>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235">
-        <v>201006</v>
+      <c r="A235" s="1">
+        <v>40330</v>
       </c>
       <c r="B235">
-        <v>1.5785916068550572E-3</v>
+        <v>2.6247408044980333E-3</v>
       </c>
       <c r="C235">
-        <v>2.1193122250645416E-3</v>
+        <v>-6.9963920368303085E-3</v>
       </c>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236">
-        <v>201007</v>
+      <c r="A236" s="1">
+        <v>40360</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -2952,30 +2957,30 @@
       </c>
     </row>
     <row r="237" spans="1:3">
-      <c r="A237">
-        <v>201008</v>
+      <c r="A237" s="1">
+        <v>40391</v>
       </c>
       <c r="B237">
-        <v>-4.3231836888068835E-3</v>
+        <v>-3.9232878822007848E-3</v>
       </c>
       <c r="C237">
-        <v>4.5520628547903782E-3</v>
+        <v>4.7629660032872589E-3</v>
       </c>
     </row>
     <row r="238" spans="1:3">
-      <c r="A238">
-        <v>201009</v>
+      <c r="A238" s="1">
+        <v>40422</v>
       </c>
       <c r="B238">
-        <v>-7.9620327468523672E-3</v>
+        <v>-7.6269506481448715E-3</v>
       </c>
       <c r="C238">
-        <v>-5.5588319357899995E-3</v>
+        <v>-1.3308345700838083E-2</v>
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239">
-        <v>201010</v>
+      <c r="A239" s="1">
+        <v>40452</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -2985,41 +2990,41 @@
       </c>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240">
-        <v>201011</v>
+      <c r="A240" s="1">
+        <v>40483</v>
       </c>
       <c r="B240">
-        <v>-1.3507785747407745E-2</v>
+        <v>-1.3339292111587622E-2</v>
       </c>
       <c r="C240">
-        <v>1.0287674235068925E-2</v>
+        <v>1.0380371182063926E-2</v>
       </c>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241">
-        <v>201012</v>
+      <c r="A241" s="1">
+        <v>40513</v>
       </c>
       <c r="B241">
-        <v>2.6254236004870923E-3</v>
+        <v>2.9934800340112823E-3</v>
       </c>
       <c r="C241">
-        <v>4.8559344360824628E-3</v>
+        <v>-2.7695480388017927E-3</v>
       </c>
     </row>
     <row r="242" spans="1:3">
-      <c r="A242">
-        <v>201101</v>
+      <c r="A242" s="1">
+        <v>40544</v>
       </c>
       <c r="B242">
-        <v>-2.981649279931544E-2</v>
+        <v>-2.8670696872928954E-2</v>
       </c>
       <c r="C242">
-        <v>1.397882582150102E-2</v>
+        <v>1.2468976642973202E-2</v>
       </c>
     </row>
     <row r="243" spans="1:3">
-      <c r="A243">
-        <v>201102</v>
+      <c r="A243" s="1">
+        <v>40575</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -3029,30 +3034,30 @@
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244">
-        <v>201103</v>
+      <c r="A244" s="1">
+        <v>40603</v>
       </c>
       <c r="B244">
-        <v>-1.8659002347395919E-2</v>
+        <v>-1.6168714619669934E-2</v>
       </c>
       <c r="C244">
-        <v>7.5154692284734696E-3</v>
+        <v>7.9763772866369466E-3</v>
       </c>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245">
-        <v>201104</v>
+      <c r="A245" s="1">
+        <v>40634</v>
       </c>
       <c r="B245">
-        <v>-1.4389204087340993E-2</v>
+        <v>-1.3036407011946551E-2</v>
       </c>
       <c r="C245">
-        <v>9.4934967097781015E-3</v>
+        <v>2.3087587611642373E-3</v>
       </c>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246">
-        <v>201105</v>
+      <c r="A246" s="1">
+        <v>40664</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -3062,19 +3067,19 @@
       </c>
     </row>
     <row r="247" spans="1:3">
-      <c r="A247">
-        <v>201106</v>
+      <c r="A247" s="1">
+        <v>40695</v>
       </c>
       <c r="B247">
-        <v>-4.0741934636665967E-3</v>
+        <v>-2.8876573258217438E-3</v>
       </c>
       <c r="C247">
-        <v>-4.9244915383177545E-3</v>
+        <v>-1.1175450101659015E-2</v>
       </c>
     </row>
     <row r="248" spans="1:3">
-      <c r="A248">
-        <v>201107</v>
+      <c r="A248" s="1">
+        <v>40725</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -3084,30 +3089,30 @@
       </c>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249">
-        <v>201108</v>
+      <c r="A249" s="1">
+        <v>40756</v>
       </c>
       <c r="B249">
-        <v>9.7366063433981884E-3</v>
+        <v>1.1866827611837749E-2</v>
       </c>
       <c r="C249">
-        <v>9.9851218712873509E-3</v>
+        <v>7.1643001783085192E-3</v>
       </c>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250">
-        <v>201109</v>
+      <c r="A250" s="1">
+        <v>40787</v>
       </c>
       <c r="B250">
-        <v>1.3360874334357526E-2</v>
+        <v>1.5091707866557811E-2</v>
       </c>
       <c r="C250">
-        <v>7.6736253031284684E-3</v>
+        <v>1.3670366348038135E-3</v>
       </c>
     </row>
     <row r="251" spans="1:3">
-      <c r="A251">
-        <v>201110</v>
+      <c r="A251" s="1">
+        <v>40817</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -3117,41 +3122,41 @@
       </c>
     </row>
     <row r="252" spans="1:3">
-      <c r="A252">
-        <v>201111</v>
+      <c r="A252" s="1">
+        <v>40848</v>
       </c>
       <c r="B252">
-        <v>-3.5138407102316051E-3</v>
+        <v>-4.0315334521554549E-3</v>
       </c>
       <c r="C252">
-        <v>-1.6088436373414305E-3</v>
+        <v>-4.5979392012668223E-3</v>
       </c>
     </row>
     <row r="253" spans="1:3">
-      <c r="A253">
-        <v>201112</v>
+      <c r="A253" s="1">
+        <v>40878</v>
       </c>
       <c r="B253">
-        <v>-2.7437465638631003E-2</v>
+        <v>-2.6936941154159361E-2</v>
       </c>
       <c r="C253">
-        <v>8.4593965358458166E-3</v>
+        <v>4.4190672424840958E-3</v>
       </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254">
-        <v>201201</v>
+      <c r="A254" s="1">
+        <v>40909</v>
       </c>
       <c r="B254">
-        <v>9.3481411459601163E-3</v>
+        <v>1.0691400905267283E-2</v>
       </c>
       <c r="C254">
-        <v>-7.9765603347118873E-3</v>
+        <v>-5.5640256387177074E-3</v>
       </c>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255">
-        <v>201202</v>
+      <c r="A255" s="1">
+        <v>40940</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -3161,30 +3166,30 @@
       </c>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256">
-        <v>201203</v>
+      <c r="A256" s="1">
+        <v>40969</v>
       </c>
       <c r="B256">
-        <v>6.8848710488359031E-3</v>
+        <v>8.4052256799931249E-3</v>
       </c>
       <c r="C256">
-        <v>-1.9011116101594564E-3</v>
+        <v>-2.6254147911881024E-3</v>
       </c>
     </row>
     <row r="257" spans="1:3">
-      <c r="A257">
-        <v>201204</v>
+      <c r="A257" s="1">
+        <v>41000</v>
       </c>
       <c r="B257">
-        <v>1.7781050467012501E-2</v>
+        <v>1.7544492424642049E-2</v>
       </c>
       <c r="C257">
-        <v>-5.7281789113757808E-3</v>
+        <v>-9.7776029330272525E-3</v>
       </c>
     </row>
     <row r="258" spans="1:3">
-      <c r="A258">
-        <v>201205</v>
+      <c r="A258" s="1">
+        <v>41030</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -3194,19 +3199,19 @@
       </c>
     </row>
     <row r="259" spans="1:3">
-      <c r="A259">
-        <v>201206</v>
+      <c r="A259" s="1">
+        <v>41061</v>
       </c>
       <c r="B259">
-        <v>1.5901254825110615E-2</v>
+        <v>1.6572894565667538E-2</v>
       </c>
       <c r="C259">
-        <v>-9.941067691852587E-5</v>
+        <v>-1.7756704126933517E-4</v>
       </c>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260">
-        <v>201207</v>
+      <c r="A260" s="1">
+        <v>41091</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -3216,41 +3221,41 @@
       </c>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261">
-        <v>201208</v>
+      <c r="A261" s="1">
+        <v>41122</v>
       </c>
       <c r="B261">
-        <v>1.7072708513955686E-2</v>
+        <v>1.8402314890940612E-2</v>
       </c>
       <c r="C261">
-        <v>9.1243753467137E-4</v>
+        <v>1.7062550338956973E-3</v>
       </c>
     </row>
     <row r="262" spans="1:3">
-      <c r="A262">
-        <v>201209</v>
+      <c r="A262" s="1">
+        <v>41153</v>
       </c>
       <c r="B262">
-        <v>3.0754486909704212E-2</v>
+        <v>3.1275259929734955E-2</v>
       </c>
       <c r="C262">
-        <v>-9.2905668735130398E-3</v>
+        <v>-1.6020047357094287E-2</v>
       </c>
     </row>
     <row r="263" spans="1:3">
-      <c r="A263">
-        <v>201210</v>
+      <c r="A263" s="1">
+        <v>41183</v>
       </c>
       <c r="B263">
-        <v>1.6812271068764886E-2</v>
+        <v>1.7233044851805091E-2</v>
       </c>
       <c r="C263">
-        <v>3.6888143447737758E-3</v>
+        <v>-9.5760358078332553E-4</v>
       </c>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264">
-        <v>201211</v>
+      <c r="A264" s="1">
+        <v>41214</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -3260,30 +3265,30 @@
       </c>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265">
-        <v>201212</v>
+      <c r="A265" s="1">
+        <v>41244</v>
       </c>
       <c r="B265">
-        <v>1.7249192388406286E-2</v>
+        <v>1.7231094731909567E-2</v>
       </c>
       <c r="C265">
-        <v>-1.3167417196311237E-2</v>
+        <v>-1.5127299779826357E-2</v>
       </c>
     </row>
     <row r="266" spans="1:3">
-      <c r="A266">
-        <v>201301</v>
+      <c r="A266" s="1">
+        <v>41275</v>
       </c>
       <c r="B266">
-        <v>1.1418402407071601E-2</v>
+        <v>1.2237104813161466E-2</v>
       </c>
       <c r="C266">
-        <v>1.5022583850550653E-2</v>
+        <v>1.5107241286129926E-2</v>
       </c>
     </row>
     <row r="267" spans="1:3">
-      <c r="A267">
-        <v>201302</v>
+      <c r="A267" s="1">
+        <v>41306</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -3293,19 +3298,19 @@
       </c>
     </row>
     <row r="268" spans="1:3">
-      <c r="A268">
-        <v>201303</v>
+      <c r="A268" s="1">
+        <v>41334</v>
       </c>
       <c r="B268">
-        <v>2.700382011609298E-2</v>
+        <v>2.8513503911608264E-2</v>
       </c>
       <c r="C268">
-        <v>7.1478343890285737E-3</v>
+        <v>4.385225616077652E-3</v>
       </c>
     </row>
     <row r="269" spans="1:3">
-      <c r="A269">
-        <v>201304</v>
+      <c r="A269" s="1">
+        <v>41365</v>
       </c>
       <c r="B269">
         <v>0</v>
@@ -3315,41 +3320,41 @@
       </c>
     </row>
     <row r="270" spans="1:3">
-      <c r="A270">
-        <v>201305</v>
+      <c r="A270" s="1">
+        <v>41395</v>
       </c>
       <c r="B270">
-        <v>2.9730355818103259E-2</v>
+        <v>3.0269153883218783E-2</v>
       </c>
       <c r="C270">
-        <v>-1.3621256285292918E-2</v>
+        <v>-1.182438279556184E-2</v>
       </c>
     </row>
     <row r="271" spans="1:3">
-      <c r="A271">
-        <v>201306</v>
+      <c r="A271" s="1">
+        <v>41426</v>
       </c>
       <c r="B271">
-        <v>1.9405539686336612E-2</v>
+        <v>1.8751082316858021E-2</v>
       </c>
       <c r="C271">
-        <v>-4.4042973454771865E-3</v>
+        <v>-4.2870036528643105E-3</v>
       </c>
     </row>
     <row r="272" spans="1:3">
-      <c r="A272">
-        <v>201307</v>
+      <c r="A272" s="1">
+        <v>41456</v>
       </c>
       <c r="B272">
-        <v>2.4355893397303282E-3</v>
+        <v>2.7151039772408611E-3</v>
       </c>
       <c r="C272">
-        <v>2.0965061627540943E-2</v>
+        <v>2.0428563570741701E-2</v>
       </c>
     </row>
     <row r="273" spans="1:3">
-      <c r="A273">
-        <v>201308</v>
+      <c r="A273" s="1">
+        <v>41487</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -3359,30 +3364,30 @@
       </c>
     </row>
     <row r="274" spans="1:3">
-      <c r="A274">
-        <v>201309</v>
+      <c r="A274" s="1">
+        <v>41518</v>
       </c>
       <c r="B274">
-        <v>1.7684613866646676E-2</v>
+        <v>1.790577461373757E-2</v>
       </c>
       <c r="C274">
-        <v>-8.2577634767188393E-3</v>
+        <v>-1.1295918879964222E-2</v>
       </c>
     </row>
     <row r="275" spans="1:3">
-      <c r="A275">
-        <v>201310</v>
+      <c r="A275" s="1">
+        <v>41548</v>
       </c>
       <c r="B275">
-        <v>-7.7192348894912109E-5</v>
+        <v>-4.1277856370245671E-4</v>
       </c>
       <c r="C275">
-        <v>-9.7075846711654895E-4</v>
+        <v>-3.0916152691441972E-4</v>
       </c>
     </row>
     <row r="276" spans="1:3">
-      <c r="A276">
-        <v>201311</v>
+      <c r="A276" s="1">
+        <v>41579</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -3392,30 +3397,30 @@
       </c>
     </row>
     <row r="277" spans="1:3">
-      <c r="A277">
-        <v>201312</v>
+      <c r="A277" s="1">
+        <v>41609</v>
       </c>
       <c r="B277">
-        <v>1.7843098832536364E-2</v>
+        <v>1.7597216380604849E-2</v>
       </c>
       <c r="C277">
-        <v>-5.6346460755199047E-3</v>
+        <v>-5.7060237352609643E-3</v>
       </c>
     </row>
     <row r="278" spans="1:3">
-      <c r="A278">
-        <v>201401</v>
+      <c r="A278" s="1">
+        <v>41640</v>
       </c>
       <c r="B278">
-        <v>2.5915262523723656E-2</v>
+        <v>2.6008329596474641E-2</v>
       </c>
       <c r="C278">
-        <v>6.0127618113591918E-3</v>
+        <v>5.6064314299866776E-3</v>
       </c>
     </row>
     <row r="279" spans="1:3">
-      <c r="A279">
-        <v>201402</v>
+      <c r="A279" s="1">
+        <v>41671</v>
       </c>
       <c r="B279">
         <v>0</v>
@@ -3425,30 +3430,30 @@
       </c>
     </row>
     <row r="280" spans="1:3">
-      <c r="A280">
-        <v>201403</v>
+      <c r="A280" s="1">
+        <v>41699</v>
       </c>
       <c r="B280">
-        <v>3.003913262105239E-3</v>
+        <v>2.1748893047935447E-3</v>
       </c>
       <c r="C280">
-        <v>-9.4251714424075719E-3</v>
+        <v>-8.9668447744700071E-3</v>
       </c>
     </row>
     <row r="281" spans="1:3">
-      <c r="A281">
-        <v>201404</v>
+      <c r="A281" s="1">
+        <v>41730</v>
       </c>
       <c r="B281">
-        <v>-1.2202970466445168E-2</v>
+        <v>-1.2869703445699519E-2</v>
       </c>
       <c r="C281">
-        <v>1.7819503600574643E-2</v>
+        <v>1.751977366027898E-2</v>
       </c>
     </row>
     <row r="282" spans="1:3">
-      <c r="A282">
-        <v>201405</v>
+      <c r="A282" s="1">
+        <v>41760</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -3458,30 +3463,30 @@
       </c>
     </row>
     <row r="283" spans="1:3">
-      <c r="A283">
-        <v>201406</v>
+      <c r="A283" s="1">
+        <v>41791</v>
       </c>
       <c r="B283">
-        <v>-8.2570869305107781E-3</v>
+        <v>-6.8989512666661123E-3</v>
       </c>
       <c r="C283">
-        <v>1.7097064015298695E-2</v>
+        <v>1.8072558155951692E-2</v>
       </c>
     </row>
     <row r="284" spans="1:3">
-      <c r="A284">
-        <v>201407</v>
+      <c r="A284" s="1">
+        <v>41821</v>
       </c>
       <c r="B284">
-        <v>-5.8582580620591693E-3</v>
+        <v>-5.4760562275169983E-3</v>
       </c>
       <c r="C284">
-        <v>-1.4202708552494307E-3</v>
+        <v>-1.1466865147567486E-3</v>
       </c>
     </row>
     <row r="285" spans="1:3">
-      <c r="A285">
-        <v>201408</v>
+      <c r="A285" s="1">
+        <v>41852</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -3491,30 +3496,30 @@
       </c>
     </row>
     <row r="286" spans="1:3">
-      <c r="A286">
-        <v>201409</v>
+      <c r="A286" s="1">
+        <v>41883</v>
       </c>
       <c r="B286">
-        <v>1.26117150532694E-2</v>
+        <v>1.1222159538720508E-2</v>
       </c>
       <c r="C286">
-        <v>-8.3886560798999126E-3</v>
+        <v>-9.7823401854080054E-3</v>
       </c>
     </row>
     <row r="287" spans="1:3">
-      <c r="A287">
-        <v>201410</v>
+      <c r="A287" s="1">
+        <v>41913</v>
       </c>
       <c r="B287">
-        <v>2.3763153822606041E-2</v>
+        <v>2.3054131766780495E-2</v>
       </c>
       <c r="C287">
-        <v>1.0715338267441293E-3</v>
+        <v>3.3686290175450224E-3</v>
       </c>
     </row>
     <row r="288" spans="1:3">
-      <c r="A288">
-        <v>201411</v>
+      <c r="A288" s="1">
+        <v>41944</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -3524,30 +3529,30 @@
       </c>
     </row>
     <row r="289" spans="1:3">
-      <c r="A289">
-        <v>201412</v>
+      <c r="A289" s="1">
+        <v>41974</v>
       </c>
       <c r="B289">
-        <v>1.8494474057005633E-2</v>
+        <v>1.7224699863637345E-2</v>
       </c>
       <c r="C289">
-        <v>-4.2900516541281367E-3</v>
+        <v>-3.6542589429633624E-3</v>
       </c>
     </row>
     <row r="290" spans="1:3">
-      <c r="A290">
-        <v>201501</v>
+      <c r="A290" s="1">
+        <v>42005</v>
       </c>
       <c r="B290">
-        <v>1.1245669443911675E-2</v>
+        <v>1.0191934321950235E-2</v>
       </c>
       <c r="C290">
-        <v>-2.3948566604455948E-3</v>
+        <v>2.6427427329884829E-3</v>
       </c>
     </row>
     <row r="291" spans="1:3">
-      <c r="A291">
-        <v>201502</v>
+      <c r="A291" s="1">
+        <v>42036</v>
       </c>
       <c r="B291">
         <v>0</v>
@@ -3557,30 +3562,30 @@
       </c>
     </row>
     <row r="292" spans="1:3">
-      <c r="A292">
-        <v>201503</v>
+      <c r="A292" s="1">
+        <v>42064</v>
       </c>
       <c r="B292">
-        <v>-1.2540056712108883E-2</v>
+        <v>-1.2626936338904124E-2</v>
       </c>
       <c r="C292">
-        <v>7.607221820419615E-4</v>
+        <v>9.1125104373218774E-3</v>
       </c>
     </row>
     <row r="293" spans="1:3">
-      <c r="A293">
-        <v>201504</v>
+      <c r="A293" s="1">
+        <v>42095</v>
       </c>
       <c r="B293">
-        <v>-3.6115334979598384E-3</v>
+        <v>-3.9907859348202891E-3</v>
       </c>
       <c r="C293">
-        <v>1.3049570246243484E-3</v>
+        <v>3.1611971653021085E-3</v>
       </c>
     </row>
     <row r="294" spans="1:3">
-      <c r="A294">
-        <v>201505</v>
+      <c r="A294" s="1">
+        <v>42125</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -3590,30 +3595,30 @@
       </c>
     </row>
     <row r="295" spans="1:3">
-      <c r="A295">
-        <v>201506</v>
+      <c r="A295" s="1">
+        <v>42156</v>
       </c>
       <c r="B295">
-        <v>4.7548623734740784E-3</v>
+        <v>5.2828170482590057E-3</v>
       </c>
       <c r="C295">
-        <v>7.2326108026802075E-4</v>
+        <v>2.2259814758767765E-3</v>
       </c>
     </row>
     <row r="296" spans="1:3">
-      <c r="A296">
-        <v>201507</v>
+      <c r="A296" s="1">
+        <v>42186</v>
       </c>
       <c r="B296">
-        <v>1.1909330501674061E-2</v>
+        <v>1.0677032865038089E-2</v>
       </c>
       <c r="C296">
-        <v>-1.5445537484207772E-2</v>
+        <v>-1.335786301775355E-2</v>
       </c>
     </row>
     <row r="297" spans="1:3">
-      <c r="A297">
-        <v>201508</v>
+      <c r="A297" s="1">
+        <v>42217</v>
       </c>
       <c r="B297">
         <v>0</v>
@@ -3623,30 +3628,30 @@
       </c>
     </row>
     <row r="298" spans="1:3">
-      <c r="A298">
-        <v>201509</v>
+      <c r="A298" s="1">
+        <v>42248</v>
       </c>
       <c r="B298">
-        <v>-2.9461185827647972E-2</v>
+        <v>-3.1762031695870094E-2</v>
       </c>
       <c r="C298">
-        <v>-8.4648197174944165E-3</v>
+        <v>-8.1110281752736005E-3</v>
       </c>
     </row>
     <row r="299" spans="1:3">
-      <c r="A299">
-        <v>201510</v>
+      <c r="A299" s="1">
+        <v>42278</v>
       </c>
       <c r="B299">
-        <v>4.852689406964316E-2</v>
+        <v>4.7075950817835041E-2</v>
       </c>
       <c r="C299">
-        <v>2.1915934172942325E-3</v>
+        <v>7.8230312292346445E-3</v>
       </c>
     </row>
     <row r="300" spans="1:3">
-      <c r="A300">
-        <v>201511</v>
+      <c r="A300" s="1">
+        <v>42309</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -3656,30 +3661,30 @@
       </c>
     </row>
     <row r="301" spans="1:3">
-      <c r="A301">
-        <v>201512</v>
+      <c r="A301" s="1">
+        <v>42339</v>
       </c>
       <c r="B301">
-        <v>3.7957813148076038E-2</v>
+        <v>3.6544813435050269E-2</v>
       </c>
       <c r="C301">
-        <v>-5.7957638214776938E-3</v>
+        <v>-3.167137659773442E-3</v>
       </c>
     </row>
     <row r="302" spans="1:3">
-      <c r="A302">
-        <v>201601</v>
+      <c r="A302" s="1">
+        <v>42370</v>
       </c>
       <c r="B302">
-        <v>7.0541371708935426E-3</v>
+        <v>4.7251173029146647E-3</v>
       </c>
       <c r="C302">
-        <v>-8.9124341042937857E-3</v>
+        <v>-6.116466604947704E-4</v>
       </c>
     </row>
     <row r="303" spans="1:3">
-      <c r="A303">
-        <v>201602</v>
+      <c r="A303" s="1">
+        <v>42401</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -3689,30 +3694,30 @@
       </c>
     </row>
     <row r="304" spans="1:3">
-      <c r="A304">
-        <v>201603</v>
+      <c r="A304" s="1">
+        <v>42430</v>
       </c>
       <c r="B304">
-        <v>-3.058220328969918E-2</v>
+        <v>-3.1728705681242447E-2</v>
       </c>
       <c r="C304">
-        <v>9.5628225880836793E-3</v>
+        <v>1.4026980471617975E-2</v>
       </c>
     </row>
     <row r="305" spans="1:3">
-      <c r="A305">
-        <v>201604</v>
+      <c r="A305" s="1">
+        <v>42461</v>
       </c>
       <c r="B305">
-        <v>1.2108211916336967E-2</v>
+        <v>1.1296730420028942E-2</v>
       </c>
       <c r="C305">
-        <v>-3.6446189660257929E-3</v>
+        <v>2.918355501078421E-3</v>
       </c>
     </row>
     <row r="306" spans="1:3">
-      <c r="A306">
-        <v>201605</v>
+      <c r="A306" s="1">
+        <v>42491</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -3722,30 +3727,30 @@
       </c>
     </row>
     <row r="307" spans="1:3">
-      <c r="A307">
-        <v>201606</v>
+      <c r="A307" s="1">
+        <v>42522</v>
       </c>
       <c r="B307">
-        <v>-1.8863299649520101E-2</v>
+        <v>-1.9179751384067977E-2</v>
       </c>
       <c r="C307">
-        <v>3.285410591649357E-3</v>
+        <v>7.1034863324860465E-3</v>
       </c>
     </row>
     <row r="308" spans="1:3">
-      <c r="A308">
-        <v>201607</v>
+      <c r="A308" s="1">
+        <v>42552</v>
       </c>
       <c r="B308">
-        <v>4.1805755808598738E-3</v>
+        <v>2.3314251048994587E-3</v>
       </c>
       <c r="C308">
-        <v>-6.3007359326741688E-3</v>
+        <v>-9.2651598874899342E-5</v>
       </c>
     </row>
     <row r="309" spans="1:3">
-      <c r="A309">
-        <v>201608</v>
+      <c r="A309" s="1">
+        <v>42583</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -3755,19 +3760,19 @@
       </c>
     </row>
     <row r="310" spans="1:3">
-      <c r="A310">
-        <v>201609</v>
+      <c r="A310" s="1">
+        <v>42614</v>
       </c>
       <c r="B310">
-        <v>-7.8768671176408685E-3</v>
+        <v>-1.0529612153398222E-2</v>
       </c>
       <c r="C310">
-        <v>1.0745216304127694E-2</v>
+        <v>1.1754084404062263E-2</v>
       </c>
     </row>
     <row r="311" spans="1:3">
-      <c r="A311">
-        <v>201610</v>
+      <c r="A311" s="1">
+        <v>42644</v>
       </c>
       <c r="B311">
         <v>0</v>
@@ -3777,30 +3782,30 @@
       </c>
     </row>
     <row r="312" spans="1:3">
-      <c r="A312">
-        <v>201611</v>
+      <c r="A312" s="1">
+        <v>42675</v>
       </c>
       <c r="B312">
-        <v>-2.4480165594354883E-3</v>
+        <v>-3.9099257072877144E-3</v>
       </c>
       <c r="C312">
-        <v>-4.976452733576886E-3</v>
+        <v>-3.5350011404541243E-3</v>
       </c>
     </row>
     <row r="313" spans="1:3">
-      <c r="A313">
-        <v>201612</v>
+      <c r="A313" s="1">
+        <v>42705</v>
       </c>
       <c r="B313">
-        <v>2.6255749626261711E-2</v>
+        <v>2.5537993489297355E-2</v>
       </c>
       <c r="C313">
-        <v>-7.8153905081405212E-3</v>
+        <v>-5.8850325027274466E-3</v>
       </c>
     </row>
     <row r="314" spans="1:3">
-      <c r="A314">
-        <v>201701</v>
+      <c r="A314" s="1">
+        <v>42736</v>
       </c>
       <c r="B314">
         <v>0</v>
@@ -3810,30 +3815,30 @@
       </c>
     </row>
     <row r="315" spans="1:3">
-      <c r="A315">
-        <v>201702</v>
+      <c r="A315" s="1">
+        <v>42767</v>
       </c>
       <c r="B315">
-        <v>4.8981650968827487E-3</v>
+        <v>3.9550522355079592E-3</v>
       </c>
       <c r="C315">
-        <v>-1.9527288354335114E-3</v>
+        <v>-2.6576355307899556E-3</v>
       </c>
     </row>
     <row r="316" spans="1:3">
-      <c r="A316">
-        <v>201703</v>
+      <c r="A316" s="1">
+        <v>42795</v>
       </c>
       <c r="B316">
-        <v>-1.9750068777847702E-2</v>
+        <v>-2.0991957531658736E-2</v>
       </c>
       <c r="C316">
-        <v>-8.6464622241770907E-3</v>
+        <v>-7.6843926024577911E-3</v>
       </c>
     </row>
     <row r="317" spans="1:3">
-      <c r="A317">
-        <v>201704</v>
+      <c r="A317" s="1">
+        <v>42826</v>
       </c>
       <c r="B317">
         <v>0</v>
@@ -3843,41 +3848,41 @@
       </c>
     </row>
     <row r="318" spans="1:3">
-      <c r="A318">
-        <v>201705</v>
+      <c r="A318" s="1">
+        <v>42856</v>
       </c>
       <c r="B318">
-        <v>1.3448068344957809E-2</v>
+        <v>1.3295431154766543E-2</v>
       </c>
       <c r="C318">
-        <v>4.0383749125766279E-3</v>
+        <v>9.4591251995906692E-3</v>
       </c>
     </row>
     <row r="319" spans="1:3">
-      <c r="A319">
-        <v>201706</v>
+      <c r="A319" s="1">
+        <v>42887</v>
       </c>
       <c r="B319">
-        <v>2.1279498835524702E-2</v>
+        <v>2.0243693027539346E-2</v>
       </c>
       <c r="C319">
-        <v>-1.3857777692649776E-3</v>
+        <v>2.8576222231854269E-3</v>
       </c>
     </row>
     <row r="320" spans="1:3">
-      <c r="A320">
-        <v>201707</v>
+      <c r="A320" s="1">
+        <v>42917</v>
       </c>
       <c r="B320">
-        <v>-1.8873231158099855E-3</v>
+        <v>-3.235315498596212E-3</v>
       </c>
       <c r="C320">
-        <v>9.2973658552019008E-4</v>
+        <v>1.1323724431305891E-3</v>
       </c>
     </row>
     <row r="321" spans="1:3">
-      <c r="A321">
-        <v>201708</v>
+      <c r="A321" s="1">
+        <v>42948</v>
       </c>
       <c r="B321">
         <v>0</v>
@@ -3887,19 +3892,19 @@
       </c>
     </row>
     <row r="322" spans="1:3">
-      <c r="A322">
-        <v>201709</v>
+      <c r="A322" s="1">
+        <v>42979</v>
       </c>
       <c r="B322">
-        <v>3.5537475209751743E-2</v>
+        <v>3.3260930159029978E-2</v>
       </c>
       <c r="C322">
-        <v>2.7634907394054643E-3</v>
+        <v>7.0884138683236092E-3</v>
       </c>
     </row>
     <row r="323" spans="1:3">
-      <c r="A323">
-        <v>201710</v>
+      <c r="A323" s="1">
+        <v>43009</v>
       </c>
       <c r="B323">
         <v>0</v>
@@ -3909,25 +3914,157 @@
       </c>
     </row>
     <row r="324" spans="1:3">
-      <c r="A324">
-        <v>201711</v>
+      <c r="A324" s="1">
+        <v>43040</v>
       </c>
       <c r="B324">
-        <v>6.667333690590571E-3</v>
+        <v>5.3334295165402114E-3</v>
       </c>
       <c r="C324">
-        <v>7.3757875538043149E-3</v>
+        <v>8.942522722589592E-3</v>
       </c>
     </row>
     <row r="325" spans="1:3">
-      <c r="A325">
-        <v>201712</v>
+      <c r="A325" s="1">
+        <v>43070</v>
       </c>
       <c r="B325">
-        <v>7.1671050223763187E-3</v>
+        <v>5.793409298191274E-3</v>
       </c>
       <c r="C325">
-        <v>-9.0725510273502036E-3</v>
+        <v>-5.8187002314515901E-3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B326">
+        <v>1.95793106323097E-2</v>
+      </c>
+      <c r="C326">
+        <v>-6.7052959728173059E-4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1">
+        <v>43132</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B328">
+        <v>1.0827719491737246E-2</v>
+      </c>
+      <c r="C328">
+        <v>-2.7053795774452973E-3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B330">
+        <v>8.7462526086710072E-3</v>
+      </c>
+      <c r="C330">
+        <v>7.3111148323184733E-3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B331">
+        <v>-5.4116909071708673E-3</v>
+      </c>
+      <c r="C331">
+        <v>1.0008493822398535E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1">
+        <v>43313</v>
+      </c>
+      <c r="B333">
+        <v>1.3357214060699797E-2</v>
+      </c>
+      <c r="C333">
+        <v>-1.5279944747614699E-2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B334">
+        <v>2.3526196951022319E-2</v>
+      </c>
+      <c r="C334">
+        <v>-1.7384168082575386E-3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1">
+        <v>43374</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1">
+        <v>43405</v>
+      </c>
+      <c r="B336">
+        <v>6.3276663370541841E-3</v>
+      </c>
+      <c r="C336">
+        <v>4.953644211803737E-3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1">
+        <v>43435</v>
+      </c>
+      <c r="B337">
+        <v>2.5546638396936567E-2</v>
+      </c>
+      <c r="C337">
+        <v>-6.7245202385515486E-3</v>
       </c>
     </row>
   </sheetData>

--- a/ff4_instruments_shared.xlsx
+++ b/ff4_instruments_shared.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Projects\IV Extension\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\osiride-fs\m035315\private\Code\MAR_update_2019\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18E4097B-17A0-43E0-9F82-3C9FC213FD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7125"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ver_2025" sheetId="2" r:id="rId1"/>
+    <sheet name="ver_2024" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>Time</t>
   </si>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -67,9 +69,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -349,15 +352,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C337"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A032EFC-B956-4033-BA98-9ECF3E30E3B6}">
+  <dimension ref="A1:C343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="3" width="16.42578125" customWidth="1"/>
+    <col min="1" max="3" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -372,6 +374,3795 @@
       </c>
     </row>
     <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>33239</v>
+      </c>
+      <c r="B2">
+        <v>1.2211783271134161E-3</v>
+      </c>
+      <c r="C2">
+        <v>5.8420658241109535E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>33270</v>
+      </c>
+      <c r="B3">
+        <v>-4.4038163438161256E-2</v>
+      </c>
+      <c r="C3">
+        <v>-7.6437048000312785E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>33298</v>
+      </c>
+      <c r="B4">
+        <v>6.8021571732809538E-2</v>
+      </c>
+      <c r="C4">
+        <v>-2.9693579539163503E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>33329</v>
+      </c>
+      <c r="B5">
+        <v>-0.11814868725263956</v>
+      </c>
+      <c r="C5">
+        <v>3.0317677915044632E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>33359</v>
+      </c>
+      <c r="B6">
+        <v>2.7383198108409813E-2</v>
+      </c>
+      <c r="C6">
+        <v>4.4775784408385463E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>33390</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>33420</v>
+      </c>
+      <c r="B8">
+        <v>4.1961771604352244E-2</v>
+      </c>
+      <c r="C8">
+        <v>1.8341740798824082E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>33451</v>
+      </c>
+      <c r="B9">
+        <v>1.7104866323730331E-3</v>
+      </c>
+      <c r="C9">
+        <v>-2.4725413422246299E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>33482</v>
+      </c>
+      <c r="B10">
+        <v>7.5976375663700949E-3</v>
+      </c>
+      <c r="C10">
+        <v>3.4958761781410393E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>33512</v>
+      </c>
+      <c r="B11">
+        <v>1.3160421892885184E-2</v>
+      </c>
+      <c r="C11">
+        <v>-1.1121137854854246E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>33543</v>
+      </c>
+      <c r="B12">
+        <v>-7.1432809467590827E-2</v>
+      </c>
+      <c r="C12">
+        <v>1.0520060986827305E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>33573</v>
+      </c>
+      <c r="B13">
+        <v>-9.9527657743116477E-2</v>
+      </c>
+      <c r="C13">
+        <v>-5.7254562728042122E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>33604</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>33635</v>
+      </c>
+      <c r="B15">
+        <v>2.9781642344939754E-2</v>
+      </c>
+      <c r="C15">
+        <v>2.1654860289033129E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>33664</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>33695</v>
+      </c>
+      <c r="B17">
+        <v>-0.14144262437196242</v>
+      </c>
+      <c r="C17">
+        <v>-1.5862424045034657E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>33725</v>
+      </c>
+      <c r="B18">
+        <v>1.1304853126734783E-2</v>
+      </c>
+      <c r="C18">
+        <v>9.2578537124905491E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>33756</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>33786</v>
+      </c>
+      <c r="B20">
+        <v>-0.23657884040106547</v>
+      </c>
+      <c r="C20">
+        <v>2.1667700134937497E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>33817</v>
+      </c>
+      <c r="B21">
+        <v>-1.7836715098275904E-2</v>
+      </c>
+      <c r="C21">
+        <v>-6.4035549382909264E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>33848</v>
+      </c>
+      <c r="B22">
+        <v>-3.4849131238750899E-2</v>
+      </c>
+      <c r="C22">
+        <v>1.5239981259514037E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>33878</v>
+      </c>
+      <c r="B23">
+        <v>5.2371985814964009E-2</v>
+      </c>
+      <c r="C23">
+        <v>-9.5305879009072204E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>33909</v>
+      </c>
+      <c r="B24">
+        <v>4.8739768047773899E-2</v>
+      </c>
+      <c r="C24">
+        <v>9.3566018126759673E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>33939</v>
+      </c>
+      <c r="B25">
+        <v>-8.0254704717842278E-3</v>
+      </c>
+      <c r="C25">
+        <v>3.3800001910630609E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>33970</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>34001</v>
+      </c>
+      <c r="B27">
+        <v>2.7146469724994023E-2</v>
+      </c>
+      <c r="C27">
+        <v>-1.3365787035674788E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>34029</v>
+      </c>
+      <c r="B28">
+        <v>1.4270734042201159E-2</v>
+      </c>
+      <c r="C28">
+        <v>-4.9556935675986215E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>34060</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>34090</v>
+      </c>
+      <c r="B30">
+        <v>1.3344118189009886E-2</v>
+      </c>
+      <c r="C30">
+        <v>-7.7364591933973895E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>34121</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>34151</v>
+      </c>
+      <c r="B32">
+        <v>4.9009504160453521E-4</v>
+      </c>
+      <c r="C32">
+        <v>8.1551294953801281E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>34182</v>
+      </c>
+      <c r="B33">
+        <v>1.9791753635645254E-2</v>
+      </c>
+      <c r="C33">
+        <v>-4.6866059752648914E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>34213</v>
+      </c>
+      <c r="B34">
+        <v>3.9460897650866036E-2</v>
+      </c>
+      <c r="C34">
+        <v>-1.2737190712407247E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>34243</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>34274</v>
+      </c>
+      <c r="B36">
+        <v>1.5751911328088456E-3</v>
+      </c>
+      <c r="C36">
+        <v>2.228733095375135E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>34304</v>
+      </c>
+      <c r="B37">
+        <v>-3.0597853711426152E-2</v>
+      </c>
+      <c r="C37">
+        <v>1.6173248286088938E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>34335</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>34366</v>
+      </c>
+      <c r="B39">
+        <v>-3.3035883359157837E-2</v>
+      </c>
+      <c r="C39">
+        <v>-3.3690097630027734E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>34394</v>
+      </c>
+      <c r="B40">
+        <v>-1.1005209784838295E-2</v>
+      </c>
+      <c r="C40">
+        <v>-2.0512341232492778E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>34425</v>
+      </c>
+      <c r="B41">
+        <v>0.11925752259075628</v>
+      </c>
+      <c r="C41">
+        <v>2.3011501377620189E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>34455</v>
+      </c>
+      <c r="B42">
+        <v>4.9750251457437403E-2</v>
+      </c>
+      <c r="C42">
+        <v>2.2847733030130643E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>34486</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>34516</v>
+      </c>
+      <c r="B44">
+        <v>-1.684251782786467E-2</v>
+      </c>
+      <c r="C44">
+        <v>-1.0726027941947312E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>34547</v>
+      </c>
+      <c r="B45">
+        <v>-3.5926940281143412E-4</v>
+      </c>
+      <c r="C45">
+        <v>-1.0886529047547996E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>34578</v>
+      </c>
+      <c r="B46">
+        <v>-5.2600580981238799E-2</v>
+      </c>
+      <c r="C46">
+        <v>1.0005819182797276E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>34608</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>34639</v>
+      </c>
+      <c r="B48">
+        <v>5.7941647360767325E-2</v>
+      </c>
+      <c r="C48">
+        <v>6.6524408236483638E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>34669</v>
+      </c>
+      <c r="B49">
+        <v>-5.9500421150333299E-2</v>
+      </c>
+      <c r="C49">
+        <v>1.3523862318625172E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>34700</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>34731</v>
+      </c>
+      <c r="B51">
+        <v>-1.4597342304298083E-2</v>
+      </c>
+      <c r="C51">
+        <v>-2.257630291552189E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>34759</v>
+      </c>
+      <c r="B52">
+        <v>3.0496894888948165E-2</v>
+      </c>
+      <c r="C52">
+        <v>-3.4918207233498935E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>34790</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>34820</v>
+      </c>
+      <c r="B54">
+        <v>3.1170276605152911E-2</v>
+      </c>
+      <c r="C54">
+        <v>-9.3488144913177994E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>34851</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>34881</v>
+      </c>
+      <c r="B56">
+        <v>-8.2201252013327536E-2</v>
+      </c>
+      <c r="C56">
+        <v>-3.1822835283871094E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>34912</v>
+      </c>
+      <c r="B57">
+        <v>1.7211491383601122E-2</v>
+      </c>
+      <c r="C57">
+        <v>3.3701410462040979E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>34943</v>
+      </c>
+      <c r="B58">
+        <v>8.9305260706503305E-3</v>
+      </c>
+      <c r="C58">
+        <v>2.3945085758865697E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>34973</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>35004</v>
+      </c>
+      <c r="B60">
+        <v>5.3225841806428836E-2</v>
+      </c>
+      <c r="C60">
+        <v>-1.2624256433012994E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>35034</v>
+      </c>
+      <c r="B61">
+        <v>-3.3286969792379231E-2</v>
+      </c>
+      <c r="C61">
+        <v>-1.0962227886437057E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>35065</v>
+      </c>
+      <c r="B62">
+        <v>5.5061216299982447E-3</v>
+      </c>
+      <c r="C62">
+        <v>-5.5279592581318621E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>35096</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>35125</v>
+      </c>
+      <c r="B64">
+        <v>1.7149868585510833E-2</v>
+      </c>
+      <c r="C64">
+        <v>4.73740712341136E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>35156</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>35186</v>
+      </c>
+      <c r="B66">
+        <v>1.3921480134785998E-2</v>
+      </c>
+      <c r="C66">
+        <v>1.3402074283901687E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>35217</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>35247</v>
+      </c>
+      <c r="B68">
+        <v>-2.8094492325776779E-2</v>
+      </c>
+      <c r="C68">
+        <v>1.1842606703111706E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>35278</v>
+      </c>
+      <c r="B69">
+        <v>1.9027286619421289E-2</v>
+      </c>
+      <c r="C69">
+        <v>-1.1179584256512803E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>35309</v>
+      </c>
+      <c r="B70">
+        <v>-0.11799849353679044</v>
+      </c>
+      <c r="C70">
+        <v>-1.1257644787388629E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>35339</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>35370</v>
+      </c>
+      <c r="B72">
+        <v>-2.5349197159446144E-3</v>
+      </c>
+      <c r="C72">
+        <v>-1.5711627400290355E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>35400</v>
+      </c>
+      <c r="B73">
+        <v>6.2631992061092266E-3</v>
+      </c>
+      <c r="C73">
+        <v>-1.4653199417012167E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>35431</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>35462</v>
+      </c>
+      <c r="B75">
+        <v>1.8122758033570493E-2</v>
+      </c>
+      <c r="C75">
+        <v>-1.084012351672793E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>35490</v>
+      </c>
+      <c r="B76">
+        <v>6.2564205179256663E-2</v>
+      </c>
+      <c r="C76">
+        <v>-1.1355459215461675E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>35521</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>35551</v>
+      </c>
+      <c r="B78">
+        <v>-2.6978302392426896E-2</v>
+      </c>
+      <c r="C78">
+        <v>-1.9745243586171687E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>35582</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>35612</v>
+      </c>
+      <c r="B80">
+        <v>-1.058928902651577E-2</v>
+      </c>
+      <c r="C80">
+        <v>-2.648119412323624E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>35643</v>
+      </c>
+      <c r="B81">
+        <v>1.7426818580987651E-2</v>
+      </c>
+      <c r="C81">
+        <v>-8.7700109446845094E-4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>35674</v>
+      </c>
+      <c r="B82">
+        <v>7.3925242571776881E-3</v>
+      </c>
+      <c r="C82">
+        <v>1.4361031209467589E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>35704</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>35735</v>
+      </c>
+      <c r="B84">
+        <v>2.8954097636229217E-3</v>
+      </c>
+      <c r="C84">
+        <v>2.8375176695209429E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>35765</v>
+      </c>
+      <c r="B85">
+        <v>-1.4913344776148942E-2</v>
+      </c>
+      <c r="C85">
+        <v>9.0449512017683701E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>35796</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>35827</v>
+      </c>
+      <c r="B87">
+        <v>2.1929819961877699E-2</v>
+      </c>
+      <c r="C87">
+        <v>-1.1739313008827412E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>35855</v>
+      </c>
+      <c r="B88">
+        <v>-7.0838478686310359E-5</v>
+      </c>
+      <c r="C88">
+        <v>1.1386099317234295E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>35886</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>35916</v>
+      </c>
+      <c r="B90">
+        <v>1.7119640618117004E-2</v>
+      </c>
+      <c r="C90">
+        <v>-9.2137151886763306E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>35947</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>35977</v>
+      </c>
+      <c r="B92">
+        <v>1.7197546783597615E-2</v>
+      </c>
+      <c r="C92">
+        <v>-5.822051343328024E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>36008</v>
+      </c>
+      <c r="B93">
+        <v>1.3911820584860485E-2</v>
+      </c>
+      <c r="C93">
+        <v>8.0799934278300133E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>36039</v>
+      </c>
+      <c r="B94">
+        <v>4.9931036355358976E-2</v>
+      </c>
+      <c r="C94">
+        <v>1.1979250570806569E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>36069</v>
+      </c>
+      <c r="B95">
+        <v>-0.25722374927735275</v>
+      </c>
+      <c r="C95">
+        <v>7.7791307929680831E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>36100</v>
+      </c>
+      <c r="B96">
+        <v>-1.1751409400982288E-2</v>
+      </c>
+      <c r="C96">
+        <v>-5.1449425988856086E-4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>36130</v>
+      </c>
+      <c r="B97">
+        <v>-6.5521075652324706E-2</v>
+      </c>
+      <c r="C97">
+        <v>1.2902908061856445E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>36161</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>36192</v>
+      </c>
+      <c r="B99">
+        <v>3.7490361020357653E-2</v>
+      </c>
+      <c r="C99">
+        <v>-3.7824548765446192E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>36220</v>
+      </c>
+      <c r="B100">
+        <v>-3.8183480391506118E-2</v>
+      </c>
+      <c r="C100">
+        <v>5.3704704268848829E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>36251</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>36281</v>
+      </c>
+      <c r="B102">
+        <v>6.5569549535242799E-2</v>
+      </c>
+      <c r="C102">
+        <v>7.4406096943808436E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>36312</v>
+      </c>
+      <c r="B103">
+        <v>-6.9985719892126833E-2</v>
+      </c>
+      <c r="C103">
+        <v>3.3963439959585704E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>36342</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>36373</v>
+      </c>
+      <c r="B105">
+        <v>-8.1839486594238019E-3</v>
+      </c>
+      <c r="C105">
+        <v>1.5856802030669845E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>36404</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>36434</v>
+      </c>
+      <c r="B107">
+        <v>2.5432788282364387E-2</v>
+      </c>
+      <c r="C107">
+        <v>1.3616586874400151E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>36465</v>
+      </c>
+      <c r="B108">
+        <v>8.4808786567382999E-2</v>
+      </c>
+      <c r="C108">
+        <v>8.6377524094366567E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>36495</v>
+      </c>
+      <c r="B109">
+        <v>-3.9452039946816404E-3</v>
+      </c>
+      <c r="C109">
+        <v>9.644129544541382E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>36526</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>36557</v>
+      </c>
+      <c r="B111">
+        <v>4.8797575946349231E-3</v>
+      </c>
+      <c r="C111">
+        <v>-3.2699731483576979E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>36586</v>
+      </c>
+      <c r="B112">
+        <v>-3.4829888225480735E-2</v>
+      </c>
+      <c r="C112">
+        <v>1.5624225361046958E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>36617</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>36647</v>
+      </c>
+      <c r="B114">
+        <v>4.5185932686871703E-2</v>
+      </c>
+      <c r="C114">
+        <v>7.108617884439567E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>36678</v>
+      </c>
+      <c r="B115">
+        <v>-1.6588958120098203E-2</v>
+      </c>
+      <c r="C115">
+        <v>-1.7442073030626698E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>36708</v>
+      </c>
+      <c r="B116">
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>36739</v>
+      </c>
+      <c r="B117">
+        <v>1.1989009298383054E-2</v>
+      </c>
+      <c r="C117">
+        <v>-9.9187780112240283E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>36770</v>
+      </c>
+      <c r="B118">
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>36800</v>
+      </c>
+      <c r="B119">
+        <v>5.1987165584690229E-2</v>
+      </c>
+      <c r="C119">
+        <v>5.6066075659765343E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>36831</v>
+      </c>
+      <c r="B120">
+        <v>5.7625863535989835E-3</v>
+      </c>
+      <c r="C120">
+        <v>5.522706348879E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>36861</v>
+      </c>
+      <c r="B121">
+        <v>2.2349873796396528E-2</v>
+      </c>
+      <c r="C121">
+        <v>-1.1523859360593887E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>36892</v>
+      </c>
+      <c r="B122">
+        <v>-5.0739220075276335E-2</v>
+      </c>
+      <c r="C122">
+        <v>-4.5462144358119426E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>36923</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>36951</v>
+      </c>
+      <c r="B124">
+        <v>-5.5679468098602462E-2</v>
+      </c>
+      <c r="C124">
+        <v>2.9069051591354457E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>36982</v>
+      </c>
+      <c r="B125">
+        <v>-0.34226728035350346</v>
+      </c>
+      <c r="C125">
+        <v>-1.5946187112383922E-2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>37012</v>
+      </c>
+      <c r="B126">
+        <v>-0.11631059747443014</v>
+      </c>
+      <c r="C126">
+        <v>3.1691178857665807E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>37043</v>
+      </c>
+      <c r="B127">
+        <v>3.2558434669094E-2</v>
+      </c>
+      <c r="C127">
+        <v>-9.0146010390941764E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>37073</v>
+      </c>
+      <c r="B128">
+        <v>0</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>37104</v>
+      </c>
+      <c r="B129">
+        <v>4.831704048897497E-2</v>
+      </c>
+      <c r="C129">
+        <v>1.6211678472449371E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>37135</v>
+      </c>
+      <c r="B130">
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>37165</v>
+      </c>
+      <c r="B131">
+        <v>4.0134459668364226E-4</v>
+      </c>
+      <c r="C131">
+        <v>-3.7589366977649877E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>37196</v>
+      </c>
+      <c r="B132">
+        <v>-1.2605960158113313E-2</v>
+      </c>
+      <c r="C132">
+        <v>-1.0083538298201616E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>37226</v>
+      </c>
+      <c r="B133">
+        <v>2.639194694583484E-2</v>
+      </c>
+      <c r="C133">
+        <v>7.7241831848258932E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>37257</v>
+      </c>
+      <c r="B134">
+        <v>2.0327770797694183E-2</v>
+      </c>
+      <c r="C134">
+        <v>2.3811288162530413E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>37288</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>37316</v>
+      </c>
+      <c r="B136">
+        <v>-2.854353272073451E-2</v>
+      </c>
+      <c r="C136">
+        <v>3.2674692852131676E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>37347</v>
+      </c>
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>37377</v>
+      </c>
+      <c r="B138">
+        <v>1.8308638292936684E-2</v>
+      </c>
+      <c r="C138">
+        <v>-2.2777393676217159E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>37408</v>
+      </c>
+      <c r="B139">
+        <v>2.2907119002771759E-2</v>
+      </c>
+      <c r="C139">
+        <v>-9.1756635833481655E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>37438</v>
+      </c>
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>37469</v>
+      </c>
+      <c r="B141">
+        <v>-3.1152544488063531E-2</v>
+      </c>
+      <c r="C141">
+        <v>1.5010354125580445E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>37500</v>
+      </c>
+      <c r="B142">
+        <v>-1.6977501097725448E-2</v>
+      </c>
+      <c r="C142">
+        <v>9.6462786709722199E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>37530</v>
+      </c>
+      <c r="B143">
+        <v>0</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>37561</v>
+      </c>
+      <c r="B144">
+        <v>-5.5909481916083317E-2</v>
+      </c>
+      <c r="C144">
+        <v>-2.0724770221827025E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
+        <v>37591</v>
+      </c>
+      <c r="B145">
+        <v>3.182210862562098E-2</v>
+      </c>
+      <c r="C145">
+        <v>-4.5341254111285617E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
+        <v>37622</v>
+      </c>
+      <c r="B146">
+        <v>3.1195721735109861E-2</v>
+      </c>
+      <c r="C146">
+        <v>3.1458586977572853E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>37653</v>
+      </c>
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>37681</v>
+      </c>
+      <c r="B148">
+        <v>-2.4046125966334583E-3</v>
+      </c>
+      <c r="C148">
+        <v>-4.0770638097915755E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>37712</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
+        <v>37742</v>
+      </c>
+      <c r="B150">
+        <v>-2.9159977514418164E-2</v>
+      </c>
+      <c r="C150">
+        <v>-5.390195392970509E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
+        <v>37773</v>
+      </c>
+      <c r="B151">
+        <v>0.14826349896083099</v>
+      </c>
+      <c r="C151">
+        <v>-3.0148211131013642E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
+        <v>37803</v>
+      </c>
+      <c r="B152">
+        <v>0</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
+        <v>37834</v>
+      </c>
+      <c r="B153">
+        <v>2.4823486602164532E-2</v>
+      </c>
+      <c r="C153">
+        <v>2.6458367189849775E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
+        <v>37865</v>
+      </c>
+      <c r="B154">
+        <v>-2.9631811802586776E-2</v>
+      </c>
+      <c r="C154">
+        <v>1.3333534254026586E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
+        <v>37895</v>
+      </c>
+      <c r="B155">
+        <v>-5.4448713048491082E-4</v>
+      </c>
+      <c r="C155">
+        <v>-9.4210991562364132E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
+        <v>37926</v>
+      </c>
+      <c r="B156">
+        <v>0</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
+        <v>37956</v>
+      </c>
+      <c r="B157">
+        <v>5.5981506957009219E-3</v>
+      </c>
+      <c r="C157">
+        <v>9.2891352950293885E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
+        <v>37987</v>
+      </c>
+      <c r="B158">
+        <v>-2.1050589992669448E-2</v>
+      </c>
+      <c r="C158">
+        <v>1.9372056076563646E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
+        <v>38018</v>
+      </c>
+      <c r="B159">
+        <v>0</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
+        <v>38047</v>
+      </c>
+      <c r="B160">
+        <v>-1.6483521979880341E-2</v>
+      </c>
+      <c r="C160">
+        <v>6.1209413609278332E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
+        <v>38078</v>
+      </c>
+      <c r="B161">
+        <v>0</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
+        <v>38108</v>
+      </c>
+      <c r="B162">
+        <v>-6.080926705658385E-4</v>
+      </c>
+      <c r="C162">
+        <v>1.2649029158960091E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
+        <v>38139</v>
+      </c>
+      <c r="B163">
+        <v>-2.5950597301901582E-2</v>
+      </c>
+      <c r="C163">
+        <v>2.0909598170129929E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
+        <v>38169</v>
+      </c>
+      <c r="B164">
+        <v>0</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
+        <v>38200</v>
+      </c>
+      <c r="B165">
+        <v>9.191258402208257E-3</v>
+      </c>
+      <c r="C165">
+        <v>2.6464869814247886E-4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
+        <v>38231</v>
+      </c>
+      <c r="B166">
+        <v>-7.5979603040983073E-3</v>
+      </c>
+      <c r="C166">
+        <v>-1.8276018397083529E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
+        <v>38261</v>
+      </c>
+      <c r="B167">
+        <v>0</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
+        <v>38292</v>
+      </c>
+      <c r="B168">
+        <v>1.3643392656268924E-2</v>
+      </c>
+      <c r="C168">
+        <v>4.593718720898407E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2">
+        <v>38322</v>
+      </c>
+      <c r="B169">
+        <v>-1.7796567540248655E-3</v>
+      </c>
+      <c r="C169">
+        <v>8.6105242377515177E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2">
+        <v>38353</v>
+      </c>
+      <c r="B170">
+        <v>0</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2">
+        <v>38384</v>
+      </c>
+      <c r="B171">
+        <v>-5.335061089435887E-3</v>
+      </c>
+      <c r="C171">
+        <v>5.2768141878957852E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2">
+        <v>38412</v>
+      </c>
+      <c r="B172">
+        <v>-1.1763995947313975E-2</v>
+      </c>
+      <c r="C172">
+        <v>1.7999376959092546E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2">
+        <v>38443</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="2">
+        <v>38473</v>
+      </c>
+      <c r="B174">
+        <v>6.7792512900092501E-3</v>
+      </c>
+      <c r="C174">
+        <v>-4.8565449360102935E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2">
+        <v>38504</v>
+      </c>
+      <c r="B175">
+        <v>2.274442795766406E-2</v>
+      </c>
+      <c r="C175">
+        <v>-5.6773612595095134E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2">
+        <v>38534</v>
+      </c>
+      <c r="B176">
+        <v>0</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2">
+        <v>38565</v>
+      </c>
+      <c r="B177">
+        <v>-1.460839706422206E-2</v>
+      </c>
+      <c r="C177">
+        <v>1.6666909024117757E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2">
+        <v>38596</v>
+      </c>
+      <c r="B178">
+        <v>1.6638825525176332E-2</v>
+      </c>
+      <c r="C178">
+        <v>1.1227276193538221E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2">
+        <v>38626</v>
+      </c>
+      <c r="B179">
+        <v>0</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2">
+        <v>38657</v>
+      </c>
+      <c r="B180">
+        <v>3.5550426042323807E-3</v>
+      </c>
+      <c r="C180">
+        <v>-7.7381830881868268E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2">
+        <v>38687</v>
+      </c>
+      <c r="B181">
+        <v>-1.8931020459149847E-3</v>
+      </c>
+      <c r="C181">
+        <v>-2.619613260986673E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2">
+        <v>38718</v>
+      </c>
+      <c r="B182">
+        <v>1.2717154196954936E-2</v>
+      </c>
+      <c r="C182">
+        <v>1.3763655955745194E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2">
+        <v>38749</v>
+      </c>
+      <c r="B183">
+        <v>0</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="2">
+        <v>38777</v>
+      </c>
+      <c r="B184">
+        <v>2.3698189287905687E-2</v>
+      </c>
+      <c r="C184">
+        <v>1.5120733893514232E-2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="2">
+        <v>38808</v>
+      </c>
+      <c r="B185">
+        <v>0</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="2">
+        <v>38838</v>
+      </c>
+      <c r="B186">
+        <v>5.1024509942111981E-2</v>
+      </c>
+      <c r="C186">
+        <v>-1.7664339639690805E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="2">
+        <v>38869</v>
+      </c>
+      <c r="B187">
+        <v>-6.2936845394398165E-3</v>
+      </c>
+      <c r="C187">
+        <v>-1.4970690177093614E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="2">
+        <v>38899</v>
+      </c>
+      <c r="B188">
+        <v>0</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2">
+        <v>38930</v>
+      </c>
+      <c r="B189">
+        <v>-1.8125468466691975E-2</v>
+      </c>
+      <c r="C189">
+        <v>-1.625520196649851E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="2">
+        <v>38961</v>
+      </c>
+      <c r="B190">
+        <v>2.1826466568417746E-2</v>
+      </c>
+      <c r="C190">
+        <v>-2.0637525089782192E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="2">
+        <v>38991</v>
+      </c>
+      <c r="B191">
+        <v>-9.6522583923524599E-3</v>
+      </c>
+      <c r="C191">
+        <v>1.606961160882811E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2">
+        <v>39022</v>
+      </c>
+      <c r="B192">
+        <v>0</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2">
+        <v>39052</v>
+      </c>
+      <c r="B193">
+        <v>2.167291832155236E-2</v>
+      </c>
+      <c r="C193">
+        <v>-7.6039743471036873E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="2">
+        <v>39083</v>
+      </c>
+      <c r="B194">
+        <v>1.4602019446010608E-2</v>
+      </c>
+      <c r="C194">
+        <v>-7.7456672851275964E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2">
+        <v>39114</v>
+      </c>
+      <c r="B195">
+        <v>0</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="2">
+        <v>39142</v>
+      </c>
+      <c r="B196">
+        <v>3.5171447022849314E-3</v>
+      </c>
+      <c r="C196">
+        <v>-1.0270594481172832E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2">
+        <v>39173</v>
+      </c>
+      <c r="B197">
+        <v>0</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2">
+        <v>39203</v>
+      </c>
+      <c r="B198">
+        <v>2.8806670176541017E-2</v>
+      </c>
+      <c r="C198">
+        <v>1.5193775776968024E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2">
+        <v>39234</v>
+      </c>
+      <c r="B199">
+        <v>5.292622328994444E-3</v>
+      </c>
+      <c r="C199">
+        <v>-5.914948997449293E-4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2">
+        <v>39264</v>
+      </c>
+      <c r="B200">
+        <v>0</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="2">
+        <v>39295</v>
+      </c>
+      <c r="B201">
+        <v>1.5306594614487235E-2</v>
+      </c>
+      <c r="C201">
+        <v>-1.5325075546418928E-2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="2">
+        <v>39326</v>
+      </c>
+      <c r="B202">
+        <v>-0.15087204695367681</v>
+      </c>
+      <c r="C202">
+        <v>2.5917635629851572E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="2">
+        <v>39356</v>
+      </c>
+      <c r="B203">
+        <v>5.1640063477094225E-2</v>
+      </c>
+      <c r="C203">
+        <v>6.5956866095979311E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="2">
+        <v>39387</v>
+      </c>
+      <c r="B204">
+        <v>0</v>
+      </c>
+      <c r="C204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="2">
+        <v>39417</v>
+      </c>
+      <c r="B205">
+        <v>8.5604771207966349E-2</v>
+      </c>
+      <c r="C205">
+        <v>-1.4489556709134564E-2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2">
+        <v>39448</v>
+      </c>
+      <c r="B206">
+        <v>-0.17953813277030234</v>
+      </c>
+      <c r="C206">
+        <v>-4.3343705885406911E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2">
+        <v>39479</v>
+      </c>
+      <c r="B207">
+        <v>0</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2">
+        <v>39508</v>
+      </c>
+      <c r="B208">
+        <v>0.19964587334006872</v>
+      </c>
+      <c r="C208">
+        <v>-3.4137136766124607E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="2">
+        <v>39539</v>
+      </c>
+      <c r="B209">
+        <v>-1.581746584646708E-3</v>
+      </c>
+      <c r="C209">
+        <v>-8.8810529813264337E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="2">
+        <v>39569</v>
+      </c>
+      <c r="B210">
+        <v>0</v>
+      </c>
+      <c r="C210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="2">
+        <v>39600</v>
+      </c>
+      <c r="B211">
+        <v>5.6705520555498101E-3</v>
+      </c>
+      <c r="C211">
+        <v>1.1143756349928634E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="2">
+        <v>39630</v>
+      </c>
+      <c r="B212">
+        <v>0</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2">
+        <v>39661</v>
+      </c>
+      <c r="B213">
+        <v>2.6696412194356658E-2</v>
+      </c>
+      <c r="C213">
+        <v>-6.4689530669122842E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="2">
+        <v>39692</v>
+      </c>
+      <c r="B214">
+        <v>0.13209147713228855</v>
+      </c>
+      <c r="C214">
+        <v>-2.6264461450677783E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="2">
+        <v>39722</v>
+      </c>
+      <c r="B215">
+        <v>-3.1765068720527229E-2</v>
+      </c>
+      <c r="C215">
+        <v>-7.2139619624682488E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="2">
+        <v>39753</v>
+      </c>
+      <c r="B216">
+        <v>6.0893088074141399E-2</v>
+      </c>
+      <c r="C216">
+        <v>-2.9376884367625644E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="2">
+        <v>39783</v>
+      </c>
+      <c r="B217">
+        <v>-2.8391905082123886E-2</v>
+      </c>
+      <c r="C217">
+        <v>-8.9372096899050638E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="2">
+        <v>39814</v>
+      </c>
+      <c r="B218">
+        <v>3.0782171041503936E-2</v>
+      </c>
+      <c r="C218">
+        <v>1.8993892689203318E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="2">
+        <v>39845</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="2">
+        <v>39873</v>
+      </c>
+      <c r="B220">
+        <v>6.8719924587034853E-2</v>
+      </c>
+      <c r="C220">
+        <v>-2.4167234319684039E-2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="2">
+        <v>39904</v>
+      </c>
+      <c r="B221">
+        <v>-7.5249767404802353E-4</v>
+      </c>
+      <c r="C221">
+        <v>2.3008510489476146E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="2">
+        <v>39934</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="2">
+        <v>39965</v>
+      </c>
+      <c r="B223">
+        <v>1.1927061488920599E-2</v>
+      </c>
+      <c r="C223">
+        <v>-2.911619867610668E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="2">
+        <v>39995</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="2">
+        <v>40026</v>
+      </c>
+      <c r="B225">
+        <v>1.7190414824253028E-2</v>
+      </c>
+      <c r="C225">
+        <v>1.1243903232220669E-2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="2">
+        <v>40057</v>
+      </c>
+      <c r="B226">
+        <v>-1.8798799419664624E-2</v>
+      </c>
+      <c r="C226">
+        <v>1.5470102632700728E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="2">
+        <v>40087</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="2">
+        <v>40118</v>
+      </c>
+      <c r="B228">
+        <v>-3.1359250052684896E-2</v>
+      </c>
+      <c r="C228">
+        <v>1.0391451157228018E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="2">
+        <v>40148</v>
+      </c>
+      <c r="B229">
+        <v>-2.5728699544006702E-2</v>
+      </c>
+      <c r="C229">
+        <v>3.119640217421954E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="2">
+        <v>40179</v>
+      </c>
+      <c r="B230">
+        <v>1.266283139656716E-2</v>
+      </c>
+      <c r="C230">
+        <v>-7.2772972864780325E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="2">
+        <v>40210</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="2">
+        <v>40238</v>
+      </c>
+      <c r="B232">
+        <v>-1.7545373528153042E-2</v>
+      </c>
+      <c r="C232">
+        <v>-6.0490502528260347E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="2">
+        <v>40269</v>
+      </c>
+      <c r="B233">
+        <v>-1.5896527151241065E-2</v>
+      </c>
+      <c r="C233">
+        <v>1.8875525697296124E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="2">
+        <v>40299</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="2">
+        <v>40330</v>
+      </c>
+      <c r="B235">
+        <v>2.011664487492004E-3</v>
+      </c>
+      <c r="C235">
+        <v>-6.6250664856852236E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="2">
+        <v>40360</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="2">
+        <v>40391</v>
+      </c>
+      <c r="B237">
+        <v>-5.0776818367207288E-3</v>
+      </c>
+      <c r="C237">
+        <v>4.949362384463819E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="2">
+        <v>40422</v>
+      </c>
+      <c r="B238">
+        <v>-8.0253675115476986E-3</v>
+      </c>
+      <c r="C238">
+        <v>-1.3258003476793385E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="2">
+        <v>40452</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="2">
+        <v>40483</v>
+      </c>
+      <c r="B240">
+        <v>-1.3729402276887348E-2</v>
+      </c>
+      <c r="C240">
+        <v>1.1033337635436184E-2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="2">
+        <v>40513</v>
+      </c>
+      <c r="B241">
+        <v>2.0536525253206511E-3</v>
+      </c>
+      <c r="C241">
+        <v>-2.3580275487262051E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="2">
+        <v>40544</v>
+      </c>
+      <c r="B242">
+        <v>-2.8400212523943057E-2</v>
+      </c>
+      <c r="C242">
+        <v>1.2358602105593967E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="2">
+        <v>40575</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="2">
+        <v>40603</v>
+      </c>
+      <c r="B244">
+        <v>-1.6502122553883097E-2</v>
+      </c>
+      <c r="C244">
+        <v>7.7641325260792192E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="2">
+        <v>40634</v>
+      </c>
+      <c r="B245">
+        <v>-1.3456067779050495E-2</v>
+      </c>
+      <c r="C245">
+        <v>2.4299962012304843E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="2">
+        <v>40664</v>
+      </c>
+      <c r="B246">
+        <v>0</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="2">
+        <v>40695</v>
+      </c>
+      <c r="B247">
+        <v>-3.5328069968899563E-3</v>
+      </c>
+      <c r="C247">
+        <v>-1.1022361729955868E-2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="2">
+        <v>40725</v>
+      </c>
+      <c r="B248">
+        <v>0</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="2">
+        <v>40756</v>
+      </c>
+      <c r="B249">
+        <v>1.1446364286270379E-2</v>
+      </c>
+      <c r="C249">
+        <v>7.2276764074093534E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="2">
+        <v>40787</v>
+      </c>
+      <c r="B250">
+        <v>1.4968962623641377E-2</v>
+      </c>
+      <c r="C250">
+        <v>1.8374116511100155E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="2">
+        <v>40817</v>
+      </c>
+      <c r="B251">
+        <v>0</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="2">
+        <v>40848</v>
+      </c>
+      <c r="B252">
+        <v>-5.108727537498501E-3</v>
+      </c>
+      <c r="C252">
+        <v>-4.2288434284611549E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="2">
+        <v>40878</v>
+      </c>
+      <c r="B253">
+        <v>-2.8288292534925902E-2</v>
+      </c>
+      <c r="C253">
+        <v>4.5118558406127543E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="2">
+        <v>40909</v>
+      </c>
+      <c r="B254">
+        <v>1.012545329855067E-2</v>
+      </c>
+      <c r="C254">
+        <v>-5.8512128763393567E-3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="2">
+        <v>40940</v>
+      </c>
+      <c r="B255">
+        <v>0</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="2">
+        <v>40969</v>
+      </c>
+      <c r="B256">
+        <v>8.2667113606917503E-3</v>
+      </c>
+      <c r="C256">
+        <v>-2.4875705998783932E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="2">
+        <v>41000</v>
+      </c>
+      <c r="B257">
+        <v>1.7450059584895549E-2</v>
+      </c>
+      <c r="C257">
+        <v>-9.6184159989500233E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="2">
+        <v>41030</v>
+      </c>
+      <c r="B258">
+        <v>0</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="2">
+        <v>41061</v>
+      </c>
+      <c r="B259">
+        <v>1.632525390287299E-2</v>
+      </c>
+      <c r="C259">
+        <v>1.067322128692743E-4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="2">
+        <v>41091</v>
+      </c>
+      <c r="B260">
+        <v>0</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="2">
+        <v>41122</v>
+      </c>
+      <c r="B261">
+        <v>1.8199479295240881E-2</v>
+      </c>
+      <c r="C261">
+        <v>1.6760405256282824E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="2">
+        <v>41153</v>
+      </c>
+      <c r="B262">
+        <v>3.1165478867403298E-2</v>
+      </c>
+      <c r="C262">
+        <v>-1.6002944410706592E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="2">
+        <v>41183</v>
+      </c>
+      <c r="B263">
+        <v>1.7306969016722629E-2</v>
+      </c>
+      <c r="C263">
+        <v>-7.6523137283001502E-4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="2">
+        <v>41214</v>
+      </c>
+      <c r="B264">
+        <v>0</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="2">
+        <v>41244</v>
+      </c>
+      <c r="B265">
+        <v>1.6847081559497944E-2</v>
+      </c>
+      <c r="C265">
+        <v>-1.4790803549105523E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="2">
+        <v>41275</v>
+      </c>
+      <c r="B266">
+        <v>1.196472372760558E-2</v>
+      </c>
+      <c r="C266">
+        <v>1.5373857166906325E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="2">
+        <v>41306</v>
+      </c>
+      <c r="B267">
+        <v>0</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="2">
+        <v>41334</v>
+      </c>
+      <c r="B268">
+        <v>2.8857075618044646E-2</v>
+      </c>
+      <c r="C268">
+        <v>4.3948634418423307E-3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="2">
+        <v>41365</v>
+      </c>
+      <c r="B269">
+        <v>0</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="2">
+        <v>41395</v>
+      </c>
+      <c r="B270">
+        <v>3.0577250882409045E-2</v>
+      </c>
+      <c r="C270">
+        <v>-1.1816003866019439E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="2">
+        <v>41426</v>
+      </c>
+      <c r="B271">
+        <v>1.8295600726261699E-2</v>
+      </c>
+      <c r="C271">
+        <v>-4.3297490573500474E-3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="2">
+        <v>41456</v>
+      </c>
+      <c r="B272">
+        <v>2.9465401738224426E-3</v>
+      </c>
+      <c r="C272">
+        <v>2.0522289647506228E-2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="2">
+        <v>41487</v>
+      </c>
+      <c r="B273">
+        <v>0</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="2">
+        <v>41518</v>
+      </c>
+      <c r="B274">
+        <v>1.7960913198555115E-2</v>
+      </c>
+      <c r="C274">
+        <v>-1.1344474423705323E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="2">
+        <v>41548</v>
+      </c>
+      <c r="B275">
+        <v>-5.6935556999494351E-4</v>
+      </c>
+      <c r="C275">
+        <v>-8.9888471582465559E-5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="2">
+        <v>41579</v>
+      </c>
+      <c r="B276">
+        <v>0</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="2">
+        <v>41609</v>
+      </c>
+      <c r="B277">
+        <v>1.7469244519432665E-2</v>
+      </c>
+      <c r="C277">
+        <v>-5.3959371139034804E-3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="2">
+        <v>41640</v>
+      </c>
+      <c r="B278">
+        <v>2.6406564717576329E-2</v>
+      </c>
+      <c r="C278">
+        <v>5.5090017085808749E-3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="2">
+        <v>41671</v>
+      </c>
+      <c r="B279">
+        <v>0</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="2">
+        <v>41699</v>
+      </c>
+      <c r="B280">
+        <v>2.0754526532998935E-3</v>
+      </c>
+      <c r="C280">
+        <v>-8.779162579987114E-3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="2">
+        <v>41730</v>
+      </c>
+      <c r="B281">
+        <v>-1.2938531408450148E-2</v>
+      </c>
+      <c r="C281">
+        <v>1.7884101574672271E-2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="2">
+        <v>41760</v>
+      </c>
+      <c r="B282">
+        <v>0</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="2">
+        <v>41791</v>
+      </c>
+      <c r="B283">
+        <v>-6.6964947152988504E-3</v>
+      </c>
+      <c r="C283">
+        <v>1.7480030908143037E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="2">
+        <v>41821</v>
+      </c>
+      <c r="B284">
+        <v>-5.7028998212782026E-3</v>
+      </c>
+      <c r="C284">
+        <v>-7.2946884658241142E-4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="2">
+        <v>41852</v>
+      </c>
+      <c r="B285">
+        <v>0</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="2">
+        <v>41883</v>
+      </c>
+      <c r="B286">
+        <v>1.0813822131950793E-2</v>
+      </c>
+      <c r="C286">
+        <v>-9.7983479027852621E-3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="2">
+        <v>41913</v>
+      </c>
+      <c r="B287">
+        <v>2.3509187378645054E-2</v>
+      </c>
+      <c r="C287">
+        <v>3.1599252502049029E-3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="2">
+        <v>41944</v>
+      </c>
+      <c r="B288">
+        <v>0</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="2">
+        <v>41974</v>
+      </c>
+      <c r="B289">
+        <v>1.7783597030490293E-2</v>
+      </c>
+      <c r="C289">
+        <v>-3.4985289746086862E-3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="2">
+        <v>42005</v>
+      </c>
+      <c r="B290">
+        <v>1.1106028972803718E-2</v>
+      </c>
+      <c r="C290">
+        <v>2.4517735903991757E-3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="2">
+        <v>42036</v>
+      </c>
+      <c r="B291">
+        <v>0</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="2">
+        <v>42064</v>
+      </c>
+      <c r="B292">
+        <v>-1.2614939548448494E-2</v>
+      </c>
+      <c r="C292">
+        <v>9.6647706799343133E-3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="2">
+        <v>42095</v>
+      </c>
+      <c r="B293">
+        <v>-3.7933734801115131E-3</v>
+      </c>
+      <c r="C293">
+        <v>2.4966795345105308E-3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="2">
+        <v>42125</v>
+      </c>
+      <c r="B294">
+        <v>0</v>
+      </c>
+      <c r="C294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="2">
+        <v>42156</v>
+      </c>
+      <c r="B295">
+        <v>5.7364297615681414E-3</v>
+      </c>
+      <c r="C295">
+        <v>2.359925658260128E-3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="2">
+        <v>42186</v>
+      </c>
+      <c r="B296">
+        <v>1.0695684864653767E-2</v>
+      </c>
+      <c r="C296">
+        <v>-1.3030107834668641E-2</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="2">
+        <v>42217</v>
+      </c>
+      <c r="B297">
+        <v>0</v>
+      </c>
+      <c r="C297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="2">
+        <v>42248</v>
+      </c>
+      <c r="B298">
+        <v>-3.1845965145346877E-2</v>
+      </c>
+      <c r="C298">
+        <v>-7.8724369067358288E-3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="2">
+        <v>42278</v>
+      </c>
+      <c r="B299">
+        <v>4.735916964100071E-2</v>
+      </c>
+      <c r="C299">
+        <v>7.9760798324943968E-3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="2">
+        <v>42309</v>
+      </c>
+      <c r="B300">
+        <v>0</v>
+      </c>
+      <c r="C300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="2">
+        <v>42339</v>
+      </c>
+      <c r="B301">
+        <v>3.7165902784518819E-2</v>
+      </c>
+      <c r="C301">
+        <v>-3.0881680856427686E-3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="2">
+        <v>42370</v>
+      </c>
+      <c r="B302">
+        <v>4.9961332842437239E-3</v>
+      </c>
+      <c r="C302">
+        <v>-8.2441176984130241E-4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="2">
+        <v>42401</v>
+      </c>
+      <c r="B303">
+        <v>0</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="2">
+        <v>42430</v>
+      </c>
+      <c r="B304">
+        <v>-3.1574926937280826E-2</v>
+      </c>
+      <c r="C304">
+        <v>1.4573719753210881E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="2">
+        <v>42461</v>
+      </c>
+      <c r="B305">
+        <v>1.1886519078241528E-2</v>
+      </c>
+      <c r="C305">
+        <v>2.742289326711183E-3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="2">
+        <v>42491</v>
+      </c>
+      <c r="B306">
+        <v>0</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="2">
+        <v>42522</v>
+      </c>
+      <c r="B307">
+        <v>-1.8184765008654763E-2</v>
+      </c>
+      <c r="C307">
+        <v>7.324858728586175E-3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="2">
+        <v>42552</v>
+      </c>
+      <c r="B308">
+        <v>2.3304387296466068E-3</v>
+      </c>
+      <c r="C308">
+        <v>5.0775283723974865E-4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="2">
+        <v>42583</v>
+      </c>
+      <c r="B309">
+        <v>0</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="2">
+        <v>42614</v>
+      </c>
+      <c r="B310">
+        <v>-1.0994950853533013E-2</v>
+      </c>
+      <c r="C310">
+        <v>1.1878516891296346E-2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="2">
+        <v>42644</v>
+      </c>
+      <c r="B311">
+        <v>0</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="2">
+        <v>42675</v>
+      </c>
+      <c r="B312">
+        <v>-3.6493778454582074E-3</v>
+      </c>
+      <c r="C312">
+        <v>-3.4572595391497425E-3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="2">
+        <v>42705</v>
+      </c>
+      <c r="B313">
+        <v>2.5926982954344868E-2</v>
+      </c>
+      <c r="C313">
+        <v>-5.9522458154014982E-3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="2">
+        <v>42736</v>
+      </c>
+      <c r="B314">
+        <v>0</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="2">
+        <v>42767</v>
+      </c>
+      <c r="B315">
+        <v>4.375765751662839E-3</v>
+      </c>
+      <c r="C315">
+        <v>-2.6062562238225815E-3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="2">
+        <v>42795</v>
+      </c>
+      <c r="B316">
+        <v>-2.0294757055467613E-2</v>
+      </c>
+      <c r="C316">
+        <v>-7.7567102890556371E-3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="2">
+        <v>42826</v>
+      </c>
+      <c r="B317">
+        <v>0</v>
+      </c>
+      <c r="C317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="2">
+        <v>42856</v>
+      </c>
+      <c r="B318">
+        <v>1.4011460479045459E-2</v>
+      </c>
+      <c r="C318">
+        <v>9.6445589671653037E-3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="2">
+        <v>42887</v>
+      </c>
+      <c r="B319">
+        <v>2.1232594348040194E-2</v>
+      </c>
+      <c r="C319">
+        <v>2.7728822852802521E-3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="2">
+        <v>42917</v>
+      </c>
+      <c r="B320">
+        <v>-2.5433681535793227E-3</v>
+      </c>
+      <c r="C320">
+        <v>9.881983213073783E-4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="2">
+        <v>42948</v>
+      </c>
+      <c r="B321">
+        <v>0</v>
+      </c>
+      <c r="C321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="2">
+        <v>42979</v>
+      </c>
+      <c r="B322">
+        <v>3.2954944861067592E-2</v>
+      </c>
+      <c r="C322">
+        <v>7.3791287486041903E-3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="2">
+        <v>43009</v>
+      </c>
+      <c r="B323">
+        <v>0</v>
+      </c>
+      <c r="C323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="2">
+        <v>43040</v>
+      </c>
+      <c r="B324">
+        <v>5.9067102951102105E-3</v>
+      </c>
+      <c r="C324">
+        <v>8.9134690114158407E-3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="2">
+        <v>43070</v>
+      </c>
+      <c r="B325">
+        <v>6.0720404804843128E-3</v>
+      </c>
+      <c r="C325">
+        <v>-5.9145579414632858E-3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="2">
+        <v>43101</v>
+      </c>
+      <c r="B326">
+        <v>2.0315294043057569E-2</v>
+      </c>
+      <c r="C326">
+        <v>-6.161261494458494E-4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="2">
+        <v>43132</v>
+      </c>
+      <c r="B327">
+        <v>0</v>
+      </c>
+      <c r="C327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="2">
+        <v>43160</v>
+      </c>
+      <c r="B328">
+        <v>1.0838746749187618E-2</v>
+      </c>
+      <c r="C328">
+        <v>-2.2634023325905275E-3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="2">
+        <v>43191</v>
+      </c>
+      <c r="B329">
+        <v>0</v>
+      </c>
+      <c r="C329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="2">
+        <v>43221</v>
+      </c>
+      <c r="B330">
+        <v>8.849094054940481E-3</v>
+      </c>
+      <c r="C330">
+        <v>7.3293136946703027E-3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="2">
+        <v>43252</v>
+      </c>
+      <c r="B331">
+        <v>-4.1496113124037488E-3</v>
+      </c>
+      <c r="C331">
+        <v>1.0007235120533715E-2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="2">
+        <v>43282</v>
+      </c>
+      <c r="B332">
+        <v>0</v>
+      </c>
+      <c r="C332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="2">
+        <v>43313</v>
+      </c>
+      <c r="B333">
+        <v>1.3925877957963052E-2</v>
+      </c>
+      <c r="C333">
+        <v>-1.4976331063980755E-2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="2">
+        <v>43344</v>
+      </c>
+      <c r="B334">
+        <v>2.3261115342347951E-2</v>
+      </c>
+      <c r="C334">
+        <v>-1.5871744510006936E-3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="2">
+        <v>43374</v>
+      </c>
+      <c r="B335">
+        <v>0</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="2">
+        <v>43405</v>
+      </c>
+      <c r="B336">
+        <v>6.5740275575984315E-3</v>
+      </c>
+      <c r="C336">
+        <v>4.8318013641977494E-3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="2">
+        <v>43435</v>
+      </c>
+      <c r="B337">
+        <v>2.6090804005388962E-2</v>
+      </c>
+      <c r="C337">
+        <v>-6.5709183031772266E-3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="2">
+        <v>43466</v>
+      </c>
+      <c r="B338">
+        <v>8.1578671990376224E-3</v>
+      </c>
+      <c r="C338">
+        <v>-2.4216579448346816E-3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="2">
+        <v>43497</v>
+      </c>
+      <c r="B339">
+        <v>0</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="2">
+        <v>43525</v>
+      </c>
+      <c r="B340">
+        <v>5.6171156009990932E-3</v>
+      </c>
+      <c r="C340">
+        <v>-3.0887059003750703E-3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="2">
+        <v>43556</v>
+      </c>
+      <c r="B341">
+        <v>0</v>
+      </c>
+      <c r="C341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="2">
+        <v>43586</v>
+      </c>
+      <c r="B342">
+        <v>-2.0176493861809013E-2</v>
+      </c>
+      <c r="C342">
+        <v>3.7536990400079484E-3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="2">
+        <v>43617</v>
+      </c>
+      <c r="B343">
+        <v>-2.235390100940967E-2</v>
+      </c>
+      <c r="C343">
+        <v>-1.3329658734410301E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C337"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="3" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>33239</v>
       </c>
